--- a/dat/variable_list-EcS_v3.xlsx
+++ b/dat/variable_list-EcS_v3.xlsx
@@ -16,7 +16,7 @@
     <sheet name="EcS-free format" sheetId="1" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2020,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="E362" sqref="E362"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="C231" sqref="C231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6517,9 +6517,6 @@
       </c>
       <c r="B225" t="s">
         <v>7</v>
-      </c>
-      <c r="C225">
-        <v>1</v>
       </c>
       <c r="D225" t="s">
         <v>281</v>

--- a/dat/variable_list-EcS_v3.xlsx
+++ b/dat/variable_list-EcS_v3.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristina\Documents\workspace\respond-wp2-ecs\dat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris\Documents\Workspace\respond-wp2-ecs\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FC9FD5-C74E-4FF9-9E96-FA94CFD5FB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10815"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EcS-table format" sheetId="2" r:id="rId1"/>
     <sheet name="EcS-free format" sheetId="1" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="487">
   <si>
     <t>label</t>
   </si>
@@ -1492,7 +1493,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1706,16 +1707,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G350" totalsRowShown="0">
-  <autoFilter ref="A1:G350"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G346" totalsRowShown="0">
+  <autoFilter ref="A1:G346" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="label"/>
-    <tableColumn id="2" name="study"/>
-    <tableColumn id="3" name="wave"/>
-    <tableColumn id="4" name="variable"/>
-    <tableColumn id="5" name="pre-upload transformation"/>
-    <tableColumn id="6" name="progress"/>
-    <tableColumn id="7" name="Columna1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="label"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="study"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="wave"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="variable"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="pre-upload transformation"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="progress"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Columna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2017,21 +2018,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G350"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="C231" sqref="C231"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="H176" sqref="H176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="47.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2056,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>415</v>
       </c>
@@ -2094,7 +2096,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2114,7 +2116,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2134,7 +2136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2154,7 +2156,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2174,7 +2176,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2194,7 +2196,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2214,7 +2216,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2234,7 +2236,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2254,7 +2256,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2274,7 +2276,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2314,7 +2316,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2334,7 +2336,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2354,7 +2356,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2374,7 +2376,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2394,7 +2396,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2414,7 +2416,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2434,7 +2436,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>418</v>
       </c>
@@ -2454,7 +2456,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>418</v>
       </c>
@@ -2474,7 +2476,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>418</v>
       </c>
@@ -2494,7 +2496,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>418</v>
       </c>
@@ -2514,7 +2516,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2534,7 +2536,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2554,7 +2556,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2574,7 +2576,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2594,7 +2596,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2634,7 +2636,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2654,7 +2656,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2674,7 +2676,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2694,7 +2696,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2714,7 +2716,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2734,7 +2736,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -2754,7 +2756,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2774,7 +2776,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -2794,7 +2796,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -2814,7 +2816,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -2834,7 +2836,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -2854,7 +2856,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -2874,7 +2876,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -2894,7 +2896,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -2914,7 +2916,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -2934,7 +2936,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -2954,7 +2956,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -2974,7 +2976,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -2994,7 +2996,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -3014,7 +3016,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -3034,7 +3036,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -3054,7 +3056,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -3074,7 +3076,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -3094,7 +3096,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -3114,7 +3116,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -3134,7 +3136,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>95</v>
       </c>
@@ -3174,7 +3176,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -3194,7 +3196,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -3214,7 +3216,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -3234,7 +3236,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>423</v>
       </c>
@@ -3254,7 +3256,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -3274,7 +3276,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -3294,7 +3296,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -3314,7 +3316,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -3334,7 +3336,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>107</v>
       </c>
@@ -3354,7 +3356,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>107</v>
       </c>
@@ -3374,7 +3376,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>117</v>
       </c>
@@ -3394,7 +3396,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>117</v>
       </c>
@@ -3414,7 +3416,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -3434,7 +3436,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>117</v>
       </c>
@@ -3454,7 +3456,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>117</v>
       </c>
@@ -3474,7 +3476,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>117</v>
       </c>
@@ -3494,7 +3496,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>117</v>
       </c>
@@ -3514,7 +3516,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -3534,7 +3536,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>117</v>
       </c>
@@ -3554,7 +3556,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>117</v>
       </c>
@@ -3574,7 +3576,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -3594,7 +3596,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>117</v>
       </c>
@@ -3614,7 +3616,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>117</v>
       </c>
@@ -3634,7 +3636,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -3654,7 +3656,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -3674,7 +3676,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>117</v>
       </c>
@@ -3694,7 +3696,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -3714,7 +3716,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>136</v>
       </c>
@@ -3734,7 +3736,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>136</v>
       </c>
@@ -3754,7 +3756,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>136</v>
       </c>
@@ -3774,7 +3776,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>136</v>
       </c>
@@ -3794,7 +3796,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>136</v>
       </c>
@@ -3814,7 +3816,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>136</v>
       </c>
@@ -3834,7 +3836,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -3854,7 +3856,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>136</v>
       </c>
@@ -3874,7 +3876,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>136</v>
       </c>
@@ -3894,7 +3896,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>136</v>
       </c>
@@ -3914,7 +3916,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>136</v>
       </c>
@@ -3934,7 +3936,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>136</v>
       </c>
@@ -3954,7 +3956,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>136</v>
       </c>
@@ -3974,7 +3976,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>136</v>
       </c>
@@ -3994,7 +3996,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>136</v>
       </c>
@@ -4014,7 +4016,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>136</v>
       </c>
@@ -4034,7 +4036,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>136</v>
       </c>
@@ -4054,7 +4056,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>136</v>
       </c>
@@ -4074,7 +4076,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>136</v>
       </c>
@@ -4094,7 +4096,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>136</v>
       </c>
@@ -4114,7 +4116,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>136</v>
       </c>
@@ -4134,7 +4136,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>136</v>
       </c>
@@ -4154,7 +4156,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>136</v>
       </c>
@@ -4174,7 +4176,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>136</v>
       </c>
@@ -4194,7 +4196,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>136</v>
       </c>
@@ -4214,7 +4216,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>136</v>
       </c>
@@ -4234,7 +4236,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>136</v>
       </c>
@@ -4254,7 +4256,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>136</v>
       </c>
@@ -4274,7 +4276,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>136</v>
       </c>
@@ -4294,7 +4296,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>136</v>
       </c>
@@ -4314,7 +4316,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>136</v>
       </c>
@@ -4334,7 +4336,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>136</v>
       </c>
@@ -4354,7 +4356,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -4374,7 +4376,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>136</v>
       </c>
@@ -4394,7 +4396,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>136</v>
       </c>
@@ -4414,7 +4416,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -4434,7 +4436,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -4454,7 +4456,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -4474,7 +4476,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -4494,7 +4496,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -4514,7 +4516,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -4534,7 +4536,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -4554,7 +4556,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>136</v>
       </c>
@@ -4574,7 +4576,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -4594,7 +4596,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>136</v>
       </c>
@@ -4614,7 +4616,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -4634,7 +4636,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -4654,7 +4656,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>136</v>
       </c>
@@ -4674,7 +4676,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -4694,7 +4696,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -4714,7 +4716,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -4734,7 +4736,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -4754,7 +4756,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -4774,7 +4776,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -4794,7 +4796,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -4814,7 +4816,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>136</v>
       </c>
@@ -4834,7 +4836,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>136</v>
       </c>
@@ -4854,7 +4856,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>136</v>
       </c>
@@ -4874,7 +4876,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>136</v>
       </c>
@@ -4894,7 +4896,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>136</v>
       </c>
@@ -4914,7 +4916,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>136</v>
       </c>
@@ -4934,7 +4936,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -4954,7 +4956,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>136</v>
       </c>
@@ -4974,7 +4976,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>136</v>
       </c>
@@ -4994,7 +4996,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>203</v>
       </c>
@@ -5014,7 +5016,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>203</v>
       </c>
@@ -5034,7 +5036,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>203</v>
       </c>
@@ -5054,7 +5056,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>203</v>
       </c>
@@ -5074,7 +5076,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>203</v>
       </c>
@@ -5094,7 +5096,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>203</v>
       </c>
@@ -5114,7 +5116,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>203</v>
       </c>
@@ -5134,7 +5136,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>203</v>
       </c>
@@ -5154,7 +5156,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>203</v>
       </c>
@@ -5174,7 +5176,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>213</v>
       </c>
@@ -5194,7 +5196,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>213</v>
       </c>
@@ -5214,7 +5216,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>213</v>
       </c>
@@ -5234,7 +5236,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>213</v>
       </c>
@@ -5254,7 +5256,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>213</v>
       </c>
@@ -5274,7 +5276,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>213</v>
       </c>
@@ -5294,7 +5296,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>213</v>
       </c>
@@ -5314,7 +5316,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>213</v>
       </c>
@@ -5334,7 +5336,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>213</v>
       </c>
@@ -5354,7 +5356,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>213</v>
       </c>
@@ -5374,7 +5376,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>213</v>
       </c>
@@ -5394,7 +5396,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>213</v>
       </c>
@@ -5414,7 +5416,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>213</v>
       </c>
@@ -5434,7 +5436,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>213</v>
       </c>
@@ -5454,7 +5456,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>213</v>
       </c>
@@ -5474,7 +5476,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>213</v>
       </c>
@@ -5494,7 +5496,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>213</v>
       </c>
@@ -5505,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E174" t="s">
         <v>15</v>
@@ -5514,27 +5516,27 @@
         <v>416</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B175" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-      <c r="D175" t="s">
-        <v>232</v>
-      </c>
-      <c r="E175" t="s">
+      <c r="B175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>2</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E175" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F175" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>213</v>
       </c>
@@ -5542,39 +5544,39 @@
         <v>7</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E176" t="s">
         <v>15</v>
       </c>
       <c r="F176" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>213</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="3">
-        <v>2</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E177" s="3" t="s">
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>235</v>
+      </c>
+      <c r="E177" t="s">
         <v>15</v>
       </c>
       <c r="F177" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>213</v>
       </c>
@@ -5585,7 +5587,7 @@
         <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E178" t="s">
         <v>15</v>
@@ -5594,7 +5596,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>213</v>
       </c>
@@ -5605,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E179" t="s">
         <v>15</v>
@@ -5614,7 +5616,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>213</v>
       </c>
@@ -5625,7 +5627,7 @@
         <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -5634,67 +5636,67 @@
         <v>469</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>213</v>
-      </c>
-      <c r="B181" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181">
-        <v>2</v>
-      </c>
-      <c r="D181" t="s">
-        <v>237</v>
-      </c>
-      <c r="E181" t="s">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="3">
+        <v>1</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E181" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F181" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="B182" t="s">
         <v>7</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E182" t="s">
         <v>15</v>
       </c>
       <c r="F182" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>239</v>
       </c>
-      <c r="B183" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C183" s="3">
-        <v>1</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E183" s="3" t="s">
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>241</v>
+      </c>
+      <c r="E183" t="s">
         <v>15</v>
       </c>
       <c r="F183" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>239</v>
       </c>
@@ -5705,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E184" t="s">
         <v>15</v>
@@ -5714,7 +5716,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>239</v>
       </c>
@@ -5725,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="E185" t="s">
         <v>15</v>
@@ -5734,7 +5736,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>239</v>
       </c>
@@ -5745,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E186" t="s">
         <v>15</v>
@@ -5754,7 +5756,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>239</v>
       </c>
@@ -5765,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -5774,7 +5776,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>239</v>
       </c>
@@ -5785,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E188" t="s">
         <v>15</v>
@@ -5794,27 +5796,27 @@
         <v>416</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-      <c r="D189" t="s">
-        <v>243</v>
-      </c>
-      <c r="E189" t="s">
+      <c r="B189" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="3">
+        <v>2</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E189" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F189" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>239</v>
       </c>
@@ -5822,19 +5824,19 @@
         <v>7</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E190" t="s">
         <v>15</v>
       </c>
       <c r="F190" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>239</v>
       </c>
@@ -5842,119 +5844,119 @@
         <v>7</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E191" t="s">
         <v>15</v>
       </c>
       <c r="F191" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>239</v>
-      </c>
-      <c r="B192" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-      <c r="D192" t="s">
-        <v>246</v>
-      </c>
-      <c r="E192" t="s">
-        <v>15</v>
-      </c>
-      <c r="F192" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C193" s="3">
-        <v>2</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E193" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>249</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193" t="s">
+        <v>251</v>
+      </c>
+      <c r="E193" t="s">
         <v>15</v>
       </c>
       <c r="F193" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
       </c>
       <c r="F194" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E195" t="s">
         <v>15</v>
       </c>
       <c r="F195" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>249</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C196" s="3">
-        <v>1</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>254</v>
+      </c>
+      <c r="E196" t="s">
+        <v>15</v>
+      </c>
+      <c r="F196" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>249</v>
       </c>
@@ -5965,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E197" t="s">
         <v>15</v>
@@ -5974,7 +5976,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>249</v>
       </c>
@@ -5985,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E198" t="s">
         <v>15</v>
@@ -5994,7 +5996,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>249</v>
       </c>
@@ -6005,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E199" t="s">
         <v>15</v>
@@ -6014,7 +6016,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>249</v>
       </c>
@@ -6025,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E200" t="s">
         <v>15</v>
@@ -6034,7 +6036,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>249</v>
       </c>
@@ -6045,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E201" t="s">
         <v>15</v>
@@ -6054,7 +6056,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>249</v>
       </c>
@@ -6065,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E202" t="s">
         <v>15</v>
@@ -6074,7 +6076,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>249</v>
       </c>
@@ -6085,7 +6087,7 @@
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E203" t="s">
         <v>15</v>
@@ -6094,7 +6096,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>249</v>
       </c>
@@ -6105,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E204" t="s">
         <v>15</v>
@@ -6114,7 +6116,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>249</v>
       </c>
@@ -6125,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E205" t="s">
         <v>15</v>
@@ -6134,69 +6136,66 @@
         <v>416</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B206" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206">
-        <v>1</v>
+      <c r="B206" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="4">
+        <v>2</v>
       </c>
       <c r="D206" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E206" t="s">
         <v>15</v>
       </c>
       <c r="F206" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>261</v>
-      </c>
-      <c r="E207" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="F207" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>249</v>
-      </c>
-      <c r="B208" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-      <c r="D208" t="s">
-        <v>262</v>
-      </c>
-      <c r="E208" t="s">
-        <v>15</v>
-      </c>
-      <c r="F208" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="3">
+        <v>1</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -6205,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E209" t="s">
         <v>15</v>
@@ -6214,64 +6213,67 @@
         <v>416</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" s="4">
-        <v>2</v>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>267</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
       </c>
       <c r="D210" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E210" t="s">
         <v>15</v>
       </c>
       <c r="F210" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B211" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>267</v>
+      </c>
+      <c r="B211" t="s">
         <v>7</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>266</v>
+        <v>271</v>
+      </c>
+      <c r="E211" t="s">
+        <v>15</v>
       </c>
       <c r="F211" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="3" t="s">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>267</v>
       </c>
-      <c r="B212" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212" s="3">
-        <v>1</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>272</v>
+      </c>
+      <c r="E212" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>267</v>
       </c>
@@ -6282,7 +6284,7 @@
         <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E213" t="s">
         <v>15</v>
@@ -6291,7 +6293,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>267</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E214" t="s">
         <v>15</v>
@@ -6311,27 +6313,27 @@
         <v>416</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B215" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-      <c r="D215" t="s">
-        <v>271</v>
-      </c>
-      <c r="E215" t="s">
+      <c r="B215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="3">
+        <v>1</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E215" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F215" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>267</v>
       </c>
@@ -6342,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E216" t="s">
         <v>15</v>
@@ -6351,7 +6353,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>267</v>
       </c>
@@ -6362,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E217" t="s">
         <v>15</v>
@@ -6371,7 +6373,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>267</v>
       </c>
@@ -6382,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="D218" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E218" t="s">
         <v>15</v>
@@ -6391,27 +6393,27 @@
         <v>416</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>267</v>
       </c>
-      <c r="B219" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" s="3">
-        <v>1</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E219" s="3" t="s">
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219" t="s">
+        <v>279</v>
+      </c>
+      <c r="E219" t="s">
         <v>15</v>
       </c>
       <c r="F219" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>267</v>
       </c>
@@ -6422,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E220" t="s">
         <v>15</v>
@@ -6431,18 +6433,15 @@
         <v>416</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>267</v>
       </c>
       <c r="B221" t="s">
         <v>7</v>
       </c>
-      <c r="C221">
-        <v>1</v>
-      </c>
       <c r="D221" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E221" t="s">
         <v>15</v>
@@ -6451,29 +6450,29 @@
         <v>416</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>267</v>
-      </c>
-      <c r="B222" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222">
-        <v>1</v>
-      </c>
-      <c r="D222" t="s">
-        <v>278</v>
-      </c>
-      <c r="E222" t="s">
-        <v>15</v>
-      </c>
-      <c r="F222" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="3">
+        <v>1</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B223" t="s">
         <v>7</v>
@@ -6482,18 +6481,18 @@
         <v>1</v>
       </c>
       <c r="D223" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E223" t="s">
         <v>15</v>
       </c>
       <c r="F223" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B224" t="s">
         <v>7</v>
@@ -6502,33 +6501,36 @@
         <v>1</v>
       </c>
       <c r="D224" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E224" t="s">
         <v>15</v>
       </c>
       <c r="F224" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B225" t="s">
         <v>7</v>
       </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
       <c r="D225" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E225" t="s">
         <v>15</v>
       </c>
       <c r="F225" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>282</v>
       </c>
@@ -6536,7 +6538,7 @@
         <v>7</v>
       </c>
       <c r="C226" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>283</v>
@@ -6545,10 +6547,10 @@
         <v>15</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>282</v>
       </c>
@@ -6556,19 +6558,19 @@
         <v>7</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E227" t="s">
         <v>15</v>
       </c>
       <c r="F227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>282</v>
       </c>
@@ -6576,19 +6578,19 @@
         <v>7</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E228" t="s">
         <v>15</v>
       </c>
       <c r="F228" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>282</v>
       </c>
@@ -6596,101 +6598,101 @@
         <v>7</v>
       </c>
       <c r="C229">
-        <v>1</v>
-      </c>
-      <c r="D229" t="s">
-        <v>286</v>
+        <v>2</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="E229" t="s">
         <v>15</v>
       </c>
       <c r="F229" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>290</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>291</v>
+      </c>
+      <c r="E230" t="s">
+        <v>15</v>
+      </c>
+      <c r="F230" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C230" s="3">
-        <v>2</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E231" t="s">
         <v>15</v>
       </c>
       <c r="F231" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="E232" t="s">
         <v>15</v>
       </c>
       <c r="F232" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
       </c>
       <c r="C233">
-        <v>2</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>289</v>
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>295</v>
       </c>
       <c r="E233" t="s">
         <v>15</v>
       </c>
       <c r="F233" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
@@ -6699,18 +6701,18 @@
         <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E234" t="s">
         <v>15</v>
       </c>
       <c r="F234" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -6719,18 +6721,18 @@
         <v>1</v>
       </c>
       <c r="D235" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E235" t="s">
         <v>15</v>
       </c>
       <c r="F235" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
@@ -6739,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="D236" t="s">
-        <v>42</v>
+        <v>298</v>
       </c>
       <c r="E236" t="s">
         <v>15</v>
@@ -6748,7 +6750,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>294</v>
       </c>
@@ -6756,19 +6758,19 @@
         <v>7</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E237" t="s">
         <v>15</v>
       </c>
       <c r="F237" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>294</v>
       </c>
@@ -6776,21 +6778,21 @@
         <v>7</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E238" t="s">
         <v>15</v>
       </c>
       <c r="F238" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -6799,7 +6801,7 @@
         <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E239" t="s">
         <v>15</v>
@@ -6808,9 +6810,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -6819,7 +6821,7 @@
         <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E240" t="s">
         <v>15</v>
@@ -6828,49 +6830,49 @@
         <v>416</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E241" t="s">
         <v>15</v>
       </c>
       <c r="F241" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B242" t="s">
         <v>7</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E242" t="s">
         <v>15</v>
       </c>
       <c r="F242" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B243" t="s">
         <v>7</v>
@@ -6879,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="D243" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -6888,9 +6890,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B244" t="s">
         <v>7</v>
@@ -6899,7 +6901,7 @@
         <v>1</v>
       </c>
       <c r="D244" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E244" t="s">
         <v>15</v>
@@ -6908,7 +6910,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>304</v>
       </c>
@@ -6916,19 +6918,19 @@
         <v>7</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E245" t="s">
         <v>15</v>
       </c>
       <c r="F245" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>304</v>
       </c>
@@ -6936,19 +6938,19 @@
         <v>7</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E246" t="s">
         <v>15</v>
       </c>
       <c r="F246" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>304</v>
       </c>
@@ -6956,119 +6958,119 @@
         <v>7</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D247" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E247" t="s">
         <v>15</v>
       </c>
       <c r="F247" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>304</v>
-      </c>
-      <c r="B248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C248">
-        <v>1</v>
-      </c>
-      <c r="D248" t="s">
-        <v>308</v>
-      </c>
-      <c r="E248" t="s">
-        <v>15</v>
-      </c>
-      <c r="F248" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" s="3">
+        <v>1</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B249" t="s">
         <v>7</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D249" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E249" t="s">
         <v>15</v>
       </c>
       <c r="F249" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B250" t="s">
         <v>7</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
       </c>
       <c r="F250" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B251" t="s">
         <v>7</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E251" t="s">
         <v>15</v>
       </c>
       <c r="F251" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>312</v>
       </c>
-      <c r="B252" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C252" s="3">
-        <v>1</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252" t="s">
+        <v>317</v>
+      </c>
+      <c r="E252" t="s">
+        <v>15</v>
+      </c>
+      <c r="F252" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>312</v>
       </c>
@@ -7079,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="D253" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E253" t="s">
         <v>15</v>
@@ -7088,7 +7090,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>312</v>
       </c>
@@ -7099,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="D254" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E254" t="s">
         <v>15</v>
@@ -7108,7 +7110,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>312</v>
       </c>
@@ -7119,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="D255" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E255" t="s">
         <v>15</v>
@@ -7128,89 +7130,89 @@
         <v>416</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B256" t="s">
         <v>7</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E256" t="s">
         <v>15</v>
       </c>
       <c r="F256" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B257" t="s">
         <v>7</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D257" t="s">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="E257" t="s">
         <v>15</v>
       </c>
       <c r="F257" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D258" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E258" t="s">
         <v>15</v>
       </c>
       <c r="F258" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="E259" t="s">
         <v>15</v>
       </c>
       <c r="F259" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
@@ -7219,7 +7221,7 @@
         <v>2</v>
       </c>
       <c r="D260" t="s">
-        <v>322</v>
+        <v>476</v>
       </c>
       <c r="E260" t="s">
         <v>15</v>
@@ -7228,9 +7230,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
@@ -7239,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="D261" t="s">
-        <v>473</v>
+        <v>326</v>
       </c>
       <c r="E261" t="s">
         <v>15</v>
@@ -7248,9 +7250,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
@@ -7259,18 +7261,18 @@
         <v>2</v>
       </c>
       <c r="D262" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E262" t="s">
         <v>15</v>
       </c>
       <c r="F262" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
@@ -7279,18 +7281,18 @@
         <v>2</v>
       </c>
       <c r="D263" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="E263" t="s">
         <v>15</v>
       </c>
       <c r="F263" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
@@ -7299,7 +7301,7 @@
         <v>2</v>
       </c>
       <c r="D264" t="s">
-        <v>476</v>
+        <v>329</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
@@ -7308,7 +7310,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>74</v>
       </c>
@@ -7319,7 +7321,7 @@
         <v>2</v>
       </c>
       <c r="D265" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E265" t="s">
         <v>15</v>
@@ -7328,7 +7330,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>74</v>
       </c>
@@ -7339,7 +7341,7 @@
         <v>2</v>
       </c>
       <c r="D266" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E266" t="s">
         <v>15</v>
@@ -7348,7 +7350,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>74</v>
       </c>
@@ -7359,7 +7361,7 @@
         <v>2</v>
       </c>
       <c r="D267" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E267" t="s">
         <v>15</v>
@@ -7368,7 +7370,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>74</v>
       </c>
@@ -7379,7 +7381,7 @@
         <v>2</v>
       </c>
       <c r="D268" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E268" t="s">
         <v>15</v>
@@ -7388,7 +7390,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>74</v>
       </c>
@@ -7399,7 +7401,7 @@
         <v>2</v>
       </c>
       <c r="D269" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E269" t="s">
         <v>15</v>
@@ -7408,7 +7410,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>74</v>
       </c>
@@ -7419,7 +7421,7 @@
         <v>2</v>
       </c>
       <c r="D270" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E270" t="s">
         <v>15</v>
@@ -7428,7 +7430,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>74</v>
       </c>
@@ -7439,7 +7441,7 @@
         <v>2</v>
       </c>
       <c r="D271" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E271" t="s">
         <v>15</v>
@@ -7448,7 +7450,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>74</v>
       </c>
@@ -7459,7 +7461,7 @@
         <v>2</v>
       </c>
       <c r="D272" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E272" t="s">
         <v>15</v>
@@ -7468,7 +7470,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>74</v>
       </c>
@@ -7479,7 +7481,7 @@
         <v>2</v>
       </c>
       <c r="D273" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E273" t="s">
         <v>15</v>
@@ -7488,7 +7490,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>74</v>
       </c>
@@ -7499,7 +7501,7 @@
         <v>2</v>
       </c>
       <c r="D274" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E274" t="s">
         <v>15</v>
@@ -7508,7 +7510,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>74</v>
       </c>
@@ -7519,7 +7521,7 @@
         <v>2</v>
       </c>
       <c r="D275" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E275" t="s">
         <v>15</v>
@@ -7528,9 +7530,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="B276" t="s">
         <v>7</v>
@@ -7539,7 +7541,7 @@
         <v>2</v>
       </c>
       <c r="D276" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E276" t="s">
         <v>15</v>
@@ -7548,9 +7550,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="B277" t="s">
         <v>7</v>
@@ -7559,7 +7561,7 @@
         <v>2</v>
       </c>
       <c r="D277" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E277" t="s">
         <v>15</v>
@@ -7568,9 +7570,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="B278" t="s">
         <v>7</v>
@@ -7579,7 +7581,7 @@
         <v>2</v>
       </c>
       <c r="D278" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E278" t="s">
         <v>15</v>
@@ -7588,9 +7590,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="B279" t="s">
         <v>7</v>
@@ -7599,7 +7601,7 @@
         <v>2</v>
       </c>
       <c r="D279" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E279" t="s">
         <v>15</v>
@@ -7608,9 +7610,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="B280" t="s">
         <v>7</v>
@@ -7619,7 +7621,7 @@
         <v>2</v>
       </c>
       <c r="D280" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E280" t="s">
         <v>15</v>
@@ -7628,9 +7630,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="B281" t="s">
         <v>7</v>
@@ -7639,7 +7641,7 @@
         <v>2</v>
       </c>
       <c r="D281" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E281" t="s">
         <v>15</v>
@@ -7648,9 +7650,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="B282" t="s">
         <v>7</v>
@@ -7659,7 +7661,7 @@
         <v>2</v>
       </c>
       <c r="D282" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E282" t="s">
         <v>15</v>
@@ -7668,9 +7670,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="B283" t="s">
         <v>7</v>
@@ -7679,7 +7681,7 @@
         <v>2</v>
       </c>
       <c r="D283" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E283" t="s">
         <v>15</v>
@@ -7688,7 +7690,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>321</v>
       </c>
@@ -7699,7 +7701,7 @@
         <v>2</v>
       </c>
       <c r="D284" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E284" t="s">
         <v>15</v>
@@ -7708,7 +7710,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>321</v>
       </c>
@@ -7719,7 +7721,7 @@
         <v>2</v>
       </c>
       <c r="D285" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E285" t="s">
         <v>15</v>
@@ -7728,7 +7730,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>321</v>
       </c>
@@ -7739,7 +7741,7 @@
         <v>2</v>
       </c>
       <c r="D286" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E286" t="s">
         <v>15</v>
@@ -7748,9 +7750,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -7759,7 +7761,7 @@
         <v>2</v>
       </c>
       <c r="D287" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E287" t="s">
         <v>15</v>
@@ -7768,9 +7770,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
@@ -7779,7 +7781,7 @@
         <v>2</v>
       </c>
       <c r="D288" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E288" t="s">
         <v>15</v>
@@ -7788,9 +7790,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -7799,7 +7801,7 @@
         <v>2</v>
       </c>
       <c r="D289" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E289" t="s">
         <v>15</v>
@@ -7808,132 +7810,132 @@
         <v>469</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>321</v>
-      </c>
-      <c r="B290" t="s">
-        <v>7</v>
-      </c>
-      <c r="C290">
-        <v>2</v>
-      </c>
-      <c r="D290" t="s">
-        <v>353</v>
-      </c>
-      <c r="E290" t="s">
-        <v>15</v>
-      </c>
-      <c r="F290" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>354</v>
-      </c>
-      <c r="B291" t="s">
-        <v>7</v>
-      </c>
-      <c r="C291">
-        <v>2</v>
-      </c>
-      <c r="D291" t="s">
-        <v>355</v>
-      </c>
-      <c r="E291" t="s">
-        <v>15</v>
-      </c>
-      <c r="F291" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" s="6">
+        <v>1</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E290" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F290" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G290" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" s="6">
+        <v>1</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F291" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
       </c>
       <c r="C292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D292" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E292" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="F292" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
       </c>
       <c r="C293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D293" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E293" t="s">
-        <v>15</v>
+        <v>366</v>
       </c>
       <c r="F293" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="B294" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C294" s="6">
-        <v>1</v>
-      </c>
-      <c r="D294" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="E294" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="F294" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G294" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B295" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C295" s="6">
-        <v>1</v>
-      </c>
-      <c r="D295" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="E295" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="F295" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>363</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E294" t="s">
+        <v>15</v>
+      </c>
+      <c r="F294" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>363</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E295" t="s">
+        <v>15</v>
+      </c>
+      <c r="F295" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -7942,18 +7944,18 @@
         <v>1</v>
       </c>
       <c r="D296" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E296" t="s">
-        <v>265</v>
+        <v>15</v>
       </c>
       <c r="F296" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -7962,18 +7964,18 @@
         <v>1</v>
       </c>
       <c r="D297" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E297" t="s">
-        <v>366</v>
+        <v>15</v>
       </c>
       <c r="F297" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -7981,8 +7983,8 @@
       <c r="C298">
         <v>1</v>
       </c>
-      <c r="D298" s="7" t="s">
-        <v>430</v>
+      <c r="D298" t="s">
+        <v>372</v>
       </c>
       <c r="E298" t="s">
         <v>15</v>
@@ -7991,9 +7993,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
@@ -8001,8 +8003,8 @@
       <c r="C299">
         <v>1</v>
       </c>
-      <c r="D299" s="7" t="s">
-        <v>431</v>
+      <c r="D299" t="s">
+        <v>373</v>
       </c>
       <c r="E299" t="s">
         <v>15</v>
@@ -8011,7 +8013,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>369</v>
       </c>
@@ -8022,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="D300" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E300" t="s">
         <v>15</v>
@@ -8031,7 +8033,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>369</v>
       </c>
@@ -8042,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="D301" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E301" t="s">
         <v>15</v>
@@ -8051,7 +8053,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>369</v>
       </c>
@@ -8062,7 +8064,7 @@
         <v>1</v>
       </c>
       <c r="D302" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E302" t="s">
         <v>15</v>
@@ -8071,7 +8073,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>369</v>
       </c>
@@ -8082,7 +8084,7 @@
         <v>1</v>
       </c>
       <c r="D303" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E303" t="s">
         <v>15</v>
@@ -8091,9 +8093,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B304" t="s">
         <v>7</v>
@@ -8102,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="D304" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E304" t="s">
         <v>15</v>
@@ -8111,9 +8113,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B305" t="s">
         <v>7</v>
@@ -8122,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="D305" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E305" t="s">
         <v>15</v>
@@ -8131,9 +8133,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B306" t="s">
         <v>7</v>
@@ -8142,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="D306" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E306" t="s">
         <v>15</v>
@@ -8151,9 +8153,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B307" t="s">
         <v>7</v>
@@ -8162,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="D307" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E307" t="s">
         <v>15</v>
@@ -8171,7 +8173,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>378</v>
       </c>
@@ -8182,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="D308" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E308" t="s">
         <v>15</v>
@@ -8191,7 +8193,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>378</v>
       </c>
@@ -8202,7 +8204,7 @@
         <v>1</v>
       </c>
       <c r="D309" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E309" t="s">
         <v>15</v>
@@ -8211,7 +8213,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>378</v>
       </c>
@@ -8222,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="D310" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E310" t="s">
         <v>15</v>
@@ -8231,9 +8233,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B311" t="s">
         <v>7</v>
@@ -8242,7 +8244,7 @@
         <v>1</v>
       </c>
       <c r="D311" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E311" t="s">
         <v>15</v>
@@ -8251,9 +8253,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B312" t="s">
         <v>7</v>
@@ -8262,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="D312" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E312" t="s">
         <v>15</v>
@@ -8271,9 +8273,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B313" t="s">
         <v>7</v>
@@ -8282,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="D313" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E313" t="s">
         <v>15</v>
@@ -8291,9 +8293,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B314" t="s">
         <v>7</v>
@@ -8302,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="D314" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E314" t="s">
         <v>15</v>
@@ -8311,7 +8313,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>386</v>
       </c>
@@ -8322,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="D315" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E315" t="s">
         <v>15</v>
@@ -8331,7 +8333,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>386</v>
       </c>
@@ -8342,7 +8344,7 @@
         <v>1</v>
       </c>
       <c r="D316" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E316" t="s">
         <v>15</v>
@@ -8351,7 +8353,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>386</v>
       </c>
@@ -8362,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="D317" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E317" t="s">
         <v>15</v>
@@ -8371,9 +8373,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
@@ -8382,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="D318" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="E318" t="s">
         <v>15</v>
@@ -8391,9 +8393,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B319" t="s">
         <v>7</v>
@@ -8402,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="D319" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E319" t="s">
         <v>15</v>
@@ -8411,9 +8413,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
@@ -8422,7 +8424,7 @@
         <v>1</v>
       </c>
       <c r="D320" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="E320" t="s">
         <v>15</v>
@@ -8431,9 +8433,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
@@ -8441,8 +8443,8 @@
       <c r="C321">
         <v>1</v>
       </c>
-      <c r="D321" t="s">
-        <v>393</v>
+      <c r="D321" s="8" t="s">
+        <v>398</v>
       </c>
       <c r="E321" t="s">
         <v>15</v>
@@ -8451,7 +8453,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>394</v>
       </c>
@@ -8462,7 +8464,7 @@
         <v>1</v>
       </c>
       <c r="D322" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E322" t="s">
         <v>15</v>
@@ -8471,7 +8473,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>394</v>
       </c>
@@ -8482,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="D323" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E323" t="s">
         <v>15</v>
@@ -8491,7 +8493,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>394</v>
       </c>
@@ -8502,7 +8504,7 @@
         <v>1</v>
       </c>
       <c r="D324" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E324" t="s">
         <v>15</v>
@@ -8511,7 +8513,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>394</v>
       </c>
@@ -8521,8 +8523,8 @@
       <c r="C325">
         <v>1</v>
       </c>
-      <c r="D325" s="8" t="s">
-        <v>398</v>
+      <c r="D325" t="s">
+        <v>402</v>
       </c>
       <c r="E325" t="s">
         <v>15</v>
@@ -8531,7 +8533,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>394</v>
       </c>
@@ -8542,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="D326" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E326" t="s">
         <v>15</v>
@@ -8551,7 +8553,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>394</v>
       </c>
@@ -8562,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="D327" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E327" t="s">
         <v>15</v>
@@ -8571,7 +8573,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>394</v>
       </c>
@@ -8582,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="D328" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E328" t="s">
         <v>15</v>
@@ -8591,7 +8593,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>394</v>
       </c>
@@ -8602,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="D329" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E329" t="s">
         <v>15</v>
@@ -8611,7 +8613,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>394</v>
       </c>
@@ -8622,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="D330" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E330" t="s">
         <v>15</v>
@@ -8631,7 +8633,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>394</v>
       </c>
@@ -8642,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="D331" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E331" t="s">
         <v>15</v>
@@ -8651,7 +8653,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>394</v>
       </c>
@@ -8662,7 +8664,7 @@
         <v>1</v>
       </c>
       <c r="D332" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E332" t="s">
         <v>15</v>
@@ -8671,7 +8673,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>394</v>
       </c>
@@ -8682,7 +8684,7 @@
         <v>1</v>
       </c>
       <c r="D333" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E333" t="s">
         <v>15</v>
@@ -8691,7 +8693,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>394</v>
       </c>
@@ -8702,7 +8704,7 @@
         <v>1</v>
       </c>
       <c r="D334" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E334" t="s">
         <v>15</v>
@@ -8711,7 +8713,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>394</v>
       </c>
@@ -8719,19 +8721,19 @@
         <v>7</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D335" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="E335" t="s">
         <v>15</v>
       </c>
       <c r="F335" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>394</v>
       </c>
@@ -8739,21 +8741,21 @@
         <v>7</v>
       </c>
       <c r="C336">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D336" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E336" t="s">
         <v>15</v>
       </c>
       <c r="F336" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="B337" t="s">
         <v>7</v>
@@ -8761,8 +8763,8 @@
       <c r="C337">
         <v>1</v>
       </c>
-      <c r="D337" t="s">
-        <v>410</v>
+      <c r="D337" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="E337" t="s">
         <v>15</v>
@@ -8771,18 +8773,18 @@
         <v>416</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>394</v>
+        <v>477</v>
       </c>
       <c r="B338" t="s">
         <v>7</v>
       </c>
       <c r="C338">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D338" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="E338" t="s">
         <v>15</v>
@@ -8791,9 +8793,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>394</v>
+        <v>477</v>
       </c>
       <c r="B339" t="s">
         <v>7</v>
@@ -8802,18 +8804,18 @@
         <v>2</v>
       </c>
       <c r="D339" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E339" t="s">
         <v>15</v>
       </c>
       <c r="F339" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>394</v>
+        <v>477</v>
       </c>
       <c r="B340" t="s">
         <v>7</v>
@@ -8822,27 +8824,27 @@
         <v>2</v>
       </c>
       <c r="D340" t="s">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="E340" t="s">
         <v>15</v>
       </c>
       <c r="F340" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="B341" t="s">
         <v>7</v>
       </c>
       <c r="C341">
-        <v>1</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>291</v>
+        <v>2</v>
+      </c>
+      <c r="D341" t="s">
+        <v>482</v>
       </c>
       <c r="E341" t="s">
         <v>15</v>
@@ -8851,7 +8853,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>477</v>
       </c>
@@ -8862,7 +8864,7 @@
         <v>2</v>
       </c>
       <c r="D342" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E342" t="s">
         <v>15</v>
@@ -8871,7 +8873,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>477</v>
       </c>
@@ -8882,7 +8884,7 @@
         <v>2</v>
       </c>
       <c r="D343" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E343" t="s">
         <v>15</v>
@@ -8891,7 +8893,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>477</v>
       </c>
@@ -8902,7 +8904,7 @@
         <v>2</v>
       </c>
       <c r="D344" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E344" t="s">
         <v>15</v>
@@ -8911,7 +8913,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>477</v>
       </c>
@@ -8922,7 +8924,7 @@
         <v>2</v>
       </c>
       <c r="D345" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E345" t="s">
         <v>15</v>
@@ -8931,7 +8933,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>477</v>
       </c>
@@ -8942,92 +8944,12 @@
         <v>2</v>
       </c>
       <c r="D346" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="E346" t="s">
         <v>15</v>
       </c>
       <c r="F346" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>477</v>
-      </c>
-      <c r="B347" t="s">
-        <v>7</v>
-      </c>
-      <c r="C347">
-        <v>2</v>
-      </c>
-      <c r="D347" t="s">
-        <v>484</v>
-      </c>
-      <c r="E347" t="s">
-        <v>15</v>
-      </c>
-      <c r="F347" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>477</v>
-      </c>
-      <c r="B348" t="s">
-        <v>7</v>
-      </c>
-      <c r="C348">
-        <v>2</v>
-      </c>
-      <c r="D348" t="s">
-        <v>485</v>
-      </c>
-      <c r="E348" t="s">
-        <v>15</v>
-      </c>
-      <c r="F348" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>477</v>
-      </c>
-      <c r="B349" t="s">
-        <v>7</v>
-      </c>
-      <c r="C349">
-        <v>2</v>
-      </c>
-      <c r="D349" t="s">
-        <v>486</v>
-      </c>
-      <c r="E349" t="s">
-        <v>15</v>
-      </c>
-      <c r="F349" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>477</v>
-      </c>
-      <c r="B350" t="s">
-        <v>7</v>
-      </c>
-      <c r="C350">
-        <v>2</v>
-      </c>
-      <c r="D350" t="s">
-        <v>472</v>
-      </c>
-      <c r="E350" t="s">
-        <v>15</v>
-      </c>
-      <c r="F350" t="s">
         <v>416</v>
       </c>
     </row>
@@ -9041,16 +8963,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F334"/>
   <sheetViews>
     <sheetView topLeftCell="A305" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -9070,7 +8992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -9090,7 +9012,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>415</v>
       </c>
@@ -9110,7 +9032,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
@@ -9130,7 +9052,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
@@ -9150,7 +9072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
@@ -9170,7 +9092,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
@@ -9190,7 +9112,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>20</v>
       </c>
@@ -9210,7 +9132,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
@@ -9230,7 +9152,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>25</v>
       </c>
@@ -9250,7 +9172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
@@ -9270,7 +9192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>29</v>
       </c>
@@ -9290,7 +9212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -9310,7 +9232,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>33</v>
       </c>
@@ -9330,7 +9252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
@@ -9350,7 +9272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>37</v>
       </c>
@@ -9370,7 +9292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -9390,7 +9312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>41</v>
       </c>
@@ -9410,7 +9332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>43</v>
       </c>
@@ -9430,7 +9352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>45</v>
       </c>
@@ -9450,7 +9372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>47</v>
       </c>
@@ -9470,7 +9392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>50</v>
       </c>
@@ -9490,7 +9412,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>52</v>
       </c>
@@ -9510,7 +9432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>54</v>
       </c>
@@ -9530,7 +9452,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>56</v>
       </c>
@@ -9550,7 +9472,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>58</v>
       </c>
@@ -9570,7 +9492,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>60</v>
       </c>
@@ -9590,7 +9512,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>62</v>
       </c>
@@ -9610,7 +9532,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>64</v>
       </c>
@@ -9630,7 +9552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>66</v>
       </c>
@@ -9650,7 +9572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>68</v>
       </c>
@@ -9670,7 +9592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>70</v>
       </c>
@@ -9690,7 +9612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>72</v>
       </c>
@@ -9710,7 +9632,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>74</v>
       </c>
@@ -9730,7 +9652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>75</v>
       </c>
@@ -9750,7 +9672,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>77</v>
       </c>
@@ -9770,7 +9692,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>79</v>
       </c>
@@ -9790,7 +9712,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>81</v>
       </c>
@@ -9810,7 +9732,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>83</v>
       </c>
@@ -9830,7 +9752,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>85</v>
       </c>
@@ -9850,7 +9772,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>87</v>
       </c>
@@ -9870,7 +9792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>75</v>
       </c>
@@ -9890,7 +9812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>77</v>
       </c>
@@ -9910,7 +9832,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>79</v>
       </c>
@@ -9930,7 +9852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>81</v>
       </c>
@@ -9950,7 +9872,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>83</v>
       </c>
@@ -9970,7 +9892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>85</v>
       </c>
@@ -9990,7 +9912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>87</v>
       </c>
@@ -10010,7 +9932,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>95</v>
       </c>
@@ -10030,7 +9952,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>97</v>
       </c>
@@ -10050,7 +9972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>99</v>
       </c>
@@ -10070,7 +9992,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>101</v>
       </c>
@@ -10090,7 +10012,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>95</v>
       </c>
@@ -10110,7 +10032,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>97</v>
       </c>
@@ -10130,7 +10052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>99</v>
       </c>
@@ -10150,7 +10072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>101</v>
       </c>
@@ -10170,7 +10092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>108</v>
       </c>
@@ -10190,7 +10112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>110</v>
       </c>
@@ -10210,7 +10132,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>112</v>
       </c>
@@ -10230,7 +10152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>114</v>
       </c>
@@ -10250,7 +10172,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>107</v>
       </c>
@@ -10270,7 +10192,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>117</v>
       </c>
@@ -10290,7 +10212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>117</v>
       </c>
@@ -10310,7 +10232,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>117</v>
       </c>
@@ -10330,7 +10252,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>117</v>
       </c>
@@ -10350,7 +10272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>117</v>
       </c>
@@ -10370,7 +10292,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>117</v>
       </c>
@@ -10390,7 +10312,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>117</v>
       </c>
@@ -10410,7 +10332,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>117</v>
       </c>
@@ -10430,7 +10352,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>117</v>
       </c>
@@ -10450,7 +10372,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>117</v>
       </c>
@@ -10470,7 +10392,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>117</v>
       </c>
@@ -10490,7 +10412,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>117</v>
       </c>
@@ -10510,7 +10432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>117</v>
       </c>
@@ -10530,7 +10452,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>117</v>
       </c>
@@ -10550,7 +10472,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
         <v>117</v>
       </c>
@@ -10570,7 +10492,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>117</v>
       </c>
@@ -10590,7 +10512,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>117</v>
       </c>
@@ -10610,7 +10532,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>136</v>
       </c>
@@ -10630,7 +10552,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>136</v>
       </c>
@@ -10650,7 +10572,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>136</v>
       </c>
@@ -10670,7 +10592,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>136</v>
       </c>
@@ -10690,7 +10612,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
         <v>136</v>
       </c>
@@ -10710,7 +10632,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>136</v>
       </c>
@@ -10730,7 +10652,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>136</v>
       </c>
@@ -10750,7 +10672,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>136</v>
       </c>
@@ -10770,7 +10692,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
         <v>136</v>
       </c>
@@ -10790,7 +10712,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>136</v>
       </c>
@@ -10810,7 +10732,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>136</v>
       </c>
@@ -10830,7 +10752,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>136</v>
       </c>
@@ -10850,7 +10772,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
         <v>136</v>
       </c>
@@ -10870,7 +10792,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>136</v>
       </c>
@@ -10890,7 +10812,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
         <v>136</v>
       </c>
@@ -10910,7 +10832,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>136</v>
       </c>
@@ -10930,7 +10852,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
         <v>136</v>
       </c>
@@ -10950,7 +10872,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>136</v>
       </c>
@@ -10970,7 +10892,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
         <v>136</v>
       </c>
@@ -10990,7 +10912,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>136</v>
       </c>
@@ -11010,7 +10932,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
         <v>136</v>
       </c>
@@ -11030,7 +10952,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>136</v>
       </c>
@@ -11050,7 +10972,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
         <v>136</v>
       </c>
@@ -11070,7 +10992,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>136</v>
       </c>
@@ -11090,7 +11012,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
         <v>136</v>
       </c>
@@ -11110,7 +11032,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
         <v>136</v>
       </c>
@@ -11130,7 +11052,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
         <v>136</v>
       </c>
@@ -11150,7 +11072,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>136</v>
       </c>
@@ -11170,7 +11092,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
         <v>136</v>
       </c>
@@ -11190,7 +11112,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
         <v>136</v>
       </c>
@@ -11210,7 +11132,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
         <v>136</v>
       </c>
@@ -11230,7 +11152,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
         <v>136</v>
       </c>
@@ -11250,7 +11172,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
         <v>136</v>
       </c>
@@ -11270,7 +11192,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
         <v>136</v>
       </c>
@@ -11290,7 +11212,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
         <v>136</v>
       </c>
@@ -11310,7 +11232,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
         <v>136</v>
       </c>
@@ -11330,7 +11252,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
         <v>136</v>
       </c>
@@ -11350,7 +11272,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
         <v>136</v>
       </c>
@@ -11370,7 +11292,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
         <v>136</v>
       </c>
@@ -11390,7 +11312,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
         <v>136</v>
       </c>
@@ -11410,7 +11332,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
         <v>136</v>
       </c>
@@ -11430,7 +11352,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
         <v>136</v>
       </c>
@@ -11450,7 +11372,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="12" t="s">
         <v>136</v>
       </c>
@@ -11470,7 +11392,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
         <v>136</v>
       </c>
@@ -11490,7 +11412,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="12" t="s">
         <v>136</v>
       </c>
@@ -11510,7 +11432,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
         <v>136</v>
       </c>
@@ -11530,7 +11452,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="12" t="s">
         <v>136</v>
       </c>
@@ -11550,7 +11472,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
         <v>136</v>
       </c>
@@ -11570,7 +11492,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
         <v>136</v>
       </c>
@@ -11590,7 +11512,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="15" t="s">
         <v>136</v>
       </c>
@@ -11610,7 +11532,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="12" t="s">
         <v>136</v>
       </c>
@@ -11630,7 +11552,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="15" t="s">
         <v>136</v>
       </c>
@@ -11650,7 +11572,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
         <v>136</v>
       </c>
@@ -11670,7 +11592,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="s">
         <v>136</v>
       </c>
@@ -11690,7 +11612,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="12" t="s">
         <v>136</v>
       </c>
@@ -11710,7 +11632,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="15" t="s">
         <v>136</v>
       </c>
@@ -11730,7 +11652,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
         <v>136</v>
       </c>
@@ -11750,7 +11672,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
         <v>136</v>
       </c>
@@ -11770,7 +11692,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
         <v>136</v>
       </c>
@@ -11790,7 +11712,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="s">
         <v>136</v>
       </c>
@@ -11810,7 +11732,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="12" t="s">
         <v>136</v>
       </c>
@@ -11830,7 +11752,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="15" t="s">
         <v>136</v>
       </c>
@@ -11850,7 +11772,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="12" t="s">
         <v>136</v>
       </c>
@@ -11870,7 +11792,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
         <v>136</v>
       </c>
@@ -11890,7 +11812,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>136</v>
       </c>
@@ -11910,7 +11832,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="15" t="s">
         <v>203</v>
       </c>
@@ -11930,7 +11852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
         <v>203</v>
       </c>
@@ -11950,7 +11872,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
         <v>203</v>
       </c>
@@ -11970,7 +11892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
         <v>203</v>
       </c>
@@ -11990,7 +11912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="15" t="s">
         <v>203</v>
       </c>
@@ -12010,7 +11932,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
         <v>203</v>
       </c>
@@ -12030,7 +11952,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
         <v>203</v>
       </c>
@@ -12050,7 +11972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="12" t="s">
         <v>203</v>
       </c>
@@ -12070,7 +11992,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
         <v>203</v>
       </c>
@@ -12090,7 +12012,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="22" t="s">
         <v>213</v>
       </c>
@@ -12110,7 +12032,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
         <v>213</v>
       </c>
@@ -12130,7 +12052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="12" t="s">
         <v>213</v>
       </c>
@@ -12150,7 +12072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
         <v>213</v>
       </c>
@@ -12170,7 +12092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="12" t="s">
         <v>213</v>
       </c>
@@ -12190,7 +12112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
         <v>213</v>
       </c>
@@ -12210,7 +12132,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
         <v>213</v>
       </c>
@@ -12230,7 +12152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
         <v>213</v>
       </c>
@@ -12250,7 +12172,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="12" t="s">
         <v>213</v>
       </c>
@@ -12270,7 +12192,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
         <v>213</v>
       </c>
@@ -12290,7 +12212,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
         <v>213</v>
       </c>
@@ -12310,7 +12232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="15" t="s">
         <v>213</v>
       </c>
@@ -12330,7 +12252,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
         <v>213</v>
       </c>
@@ -12350,7 +12272,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="15" t="s">
         <v>213</v>
       </c>
@@ -12370,7 +12292,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
         <v>213</v>
       </c>
@@ -12390,7 +12312,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="15" t="s">
         <v>213</v>
       </c>
@@ -12410,7 +12332,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="12" t="s">
         <v>213</v>
       </c>
@@ -12430,7 +12352,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
         <v>213</v>
       </c>
@@ -12450,7 +12372,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
         <v>213</v>
       </c>
@@ -12470,7 +12392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="25" t="s">
         <v>213</v>
       </c>
@@ -12490,7 +12412,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
         <v>213</v>
       </c>
@@ -12510,7 +12432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
         <v>213</v>
       </c>
@@ -12530,7 +12452,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
         <v>213</v>
       </c>
@@ -12550,7 +12472,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
         <v>213</v>
       </c>
@@ -12570,7 +12492,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="12" t="s">
         <v>213</v>
       </c>
@@ -12590,7 +12512,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="25" t="s">
         <v>239</v>
       </c>
@@ -12610,7 +12532,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="12" t="s">
         <v>239</v>
       </c>
@@ -12630,7 +12552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="15" t="s">
         <v>239</v>
       </c>
@@ -12650,7 +12572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="12" t="s">
         <v>239</v>
       </c>
@@ -12670,7 +12592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
         <v>239</v>
       </c>
@@ -12690,7 +12612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
         <v>239</v>
       </c>
@@ -12710,7 +12632,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
         <v>239</v>
       </c>
@@ -12730,7 +12652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="12" t="s">
         <v>239</v>
       </c>
@@ -12750,7 +12672,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
         <v>239</v>
       </c>
@@ -12770,7 +12692,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
         <v>239</v>
       </c>
@@ -12790,7 +12712,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="25" t="s">
         <v>239</v>
       </c>
@@ -12810,7 +12732,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
         <v>239</v>
       </c>
@@ -12830,7 +12752,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
         <v>239</v>
       </c>
@@ -12850,7 +12772,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="22" t="s">
         <v>249</v>
       </c>
@@ -12870,7 +12792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
         <v>249</v>
       </c>
@@ -12890,7 +12812,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
         <v>249</v>
       </c>
@@ -12910,7 +12832,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
         <v>249</v>
       </c>
@@ -12930,7 +12852,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
         <v>249</v>
       </c>
@@ -12950,7 +12872,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
         <v>249</v>
       </c>
@@ -12970,7 +12892,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="12" t="s">
         <v>249</v>
       </c>
@@ -12990,7 +12912,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
         <v>249</v>
       </c>
@@ -13010,7 +12932,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="12" t="s">
         <v>249</v>
       </c>
@@ -13030,7 +12952,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
         <v>249</v>
       </c>
@@ -13050,7 +12972,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="12" t="s">
         <v>249</v>
       </c>
@@ -13070,7 +12992,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="15" t="s">
         <v>249</v>
       </c>
@@ -13090,7 +13012,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
         <v>249</v>
       </c>
@@ -13110,7 +13032,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="15" t="s">
         <v>249</v>
       </c>
@@ -13130,7 +13052,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="28" t="s">
         <v>249</v>
       </c>
@@ -13150,7 +13072,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="28" t="s">
         <v>249</v>
       </c>
@@ -13168,7 +13090,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="22" t="s">
         <v>267</v>
       </c>
@@ -13188,7 +13110,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="15" t="s">
         <v>267</v>
       </c>
@@ -13208,7 +13130,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
         <v>267</v>
       </c>
@@ -13228,7 +13150,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="15" t="s">
         <v>267</v>
       </c>
@@ -13248,7 +13170,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="12" t="s">
         <v>267</v>
       </c>
@@ -13268,7 +13190,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="15" t="s">
         <v>267</v>
       </c>
@@ -13288,7 +13210,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="12" t="s">
         <v>267</v>
       </c>
@@ -13308,7 +13230,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="25" t="s">
         <v>267</v>
       </c>
@@ -13328,7 +13250,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="12" t="s">
         <v>267</v>
       </c>
@@ -13348,7 +13270,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="15" t="s">
         <v>267</v>
       </c>
@@ -13368,7 +13290,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="12" t="s">
         <v>267</v>
       </c>
@@ -13388,7 +13310,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="15" t="s">
         <v>267</v>
       </c>
@@ -13408,7 +13330,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="12" t="s">
         <v>267</v>
       </c>
@@ -13428,7 +13350,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
         <v>267</v>
       </c>
@@ -13448,7 +13370,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="22" t="s">
         <v>282</v>
       </c>
@@ -13468,7 +13390,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="15" t="s">
         <v>282</v>
       </c>
@@ -13488,7 +13410,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="12" t="s">
         <v>282</v>
       </c>
@@ -13508,7 +13430,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="15" t="s">
         <v>282</v>
       </c>
@@ -13528,7 +13450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="22" t="s">
         <v>282</v>
       </c>
@@ -13548,7 +13470,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="15" t="s">
         <v>282</v>
       </c>
@@ -13568,7 +13490,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="12" t="s">
         <v>282</v>
       </c>
@@ -13588,7 +13510,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="15" t="s">
         <v>282</v>
       </c>
@@ -13608,7 +13530,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="12" t="s">
         <v>290</v>
       </c>
@@ -13628,7 +13550,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="15" t="s">
         <v>290</v>
       </c>
@@ -13648,7 +13570,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="12" t="s">
         <v>293</v>
       </c>
@@ -13668,7 +13590,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="15" t="s">
         <v>294</v>
       </c>
@@ -13688,7 +13610,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="12" t="s">
         <v>294</v>
       </c>
@@ -13708,7 +13630,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="15" t="s">
         <v>294</v>
       </c>
@@ -13728,7 +13650,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
         <v>294</v>
       </c>
@@ -13748,7 +13670,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="15" t="s">
         <v>294</v>
       </c>
@@ -13768,7 +13690,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
         <v>294</v>
       </c>
@@ -13788,7 +13710,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="15" t="s">
         <v>301</v>
       </c>
@@ -13808,7 +13730,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
         <v>301</v>
       </c>
@@ -13828,7 +13750,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="15" t="s">
         <v>304</v>
       </c>
@@ -13848,7 +13770,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
         <v>304</v>
       </c>
@@ -13868,7 +13790,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="15" t="s">
         <v>304</v>
       </c>
@@ -13888,7 +13810,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
         <v>304</v>
       </c>
@@ -13908,7 +13830,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="15" t="s">
         <v>304</v>
       </c>
@@ -13928,7 +13850,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
         <v>304</v>
       </c>
@@ -13948,7 +13870,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
         <v>304</v>
       </c>
@@ -13968,7 +13890,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="22" t="s">
         <v>312</v>
       </c>
@@ -13988,7 +13910,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
         <v>312</v>
       </c>
@@ -14008,7 +13930,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="12" t="s">
         <v>312</v>
       </c>
@@ -14028,7 +13950,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="15" t="s">
         <v>312</v>
       </c>
@@ -14048,7 +13970,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="12" t="s">
         <v>312</v>
       </c>
@@ -14068,7 +13990,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="15" t="s">
         <v>312</v>
       </c>
@@ -14088,7 +14010,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="12" t="s">
         <v>312</v>
       </c>
@@ -14108,7 +14030,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="15" t="s">
         <v>312</v>
       </c>
@@ -14128,7 +14050,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="12" t="s">
         <v>321</v>
       </c>
@@ -14148,7 +14070,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="15" t="s">
         <v>321</v>
       </c>
@@ -14168,7 +14090,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="12" t="s">
         <v>324</v>
       </c>
@@ -14188,7 +14110,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="15" t="s">
         <v>74</v>
       </c>
@@ -14208,7 +14130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="12" t="s">
         <v>74</v>
       </c>
@@ -14228,7 +14150,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="15" t="s">
         <v>74</v>
       </c>
@@ -14248,7 +14170,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="12" t="s">
         <v>74</v>
       </c>
@@ -14268,7 +14190,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="15" t="s">
         <v>74</v>
       </c>
@@ -14288,7 +14210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
         <v>74</v>
       </c>
@@ -14308,7 +14230,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="15" t="s">
         <v>74</v>
       </c>
@@ -14328,7 +14250,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="s">
         <v>74</v>
       </c>
@@ -14348,7 +14270,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="15" t="s">
         <v>74</v>
       </c>
@@ -14368,7 +14290,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="12" t="s">
         <v>74</v>
       </c>
@@ -14388,7 +14310,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="15" t="s">
         <v>74</v>
       </c>
@@ -14408,7 +14330,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="12" t="s">
         <v>74</v>
       </c>
@@ -14428,7 +14350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="15" t="s">
         <v>74</v>
       </c>
@@ -14448,7 +14370,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="12" t="s">
         <v>74</v>
       </c>
@@ -14468,7 +14390,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="15" t="s">
         <v>74</v>
       </c>
@@ -14488,7 +14410,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
         <v>341</v>
       </c>
@@ -14508,7 +14430,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="15" t="s">
         <v>341</v>
       </c>
@@ -14528,7 +14450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="12" t="s">
         <v>344</v>
       </c>
@@ -14548,7 +14470,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="15" t="s">
         <v>344</v>
       </c>
@@ -14568,7 +14490,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="12" t="s">
         <v>321</v>
       </c>
@@ -14588,7 +14510,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="15" t="s">
         <v>321</v>
       </c>
@@ -14608,7 +14530,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="12" t="s">
         <v>321</v>
       </c>
@@ -14628,7 +14550,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="15" t="s">
         <v>321</v>
       </c>
@@ -14648,7 +14570,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
         <v>321</v>
       </c>
@@ -14668,7 +14590,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="15" t="s">
         <v>321</v>
       </c>
@@ -14688,7 +14610,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="12" t="s">
         <v>321</v>
       </c>
@@ -14706,7 +14628,7 @@
       </c>
       <c r="F283" s="14"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="15" t="s">
         <v>354</v>
       </c>
@@ -14726,7 +14648,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="12" t="s">
         <v>354</v>
       </c>
@@ -14746,7 +14668,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="15" t="s">
         <v>357</v>
       </c>
@@ -14766,7 +14688,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="32" t="s">
         <v>359</v>
       </c>
@@ -14786,7 +14708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="32" t="s">
         <v>362</v>
       </c>
@@ -14804,7 +14726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
         <v>363</v>
       </c>
@@ -14824,7 +14746,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="15" t="s">
         <v>363</v>
       </c>
@@ -14844,7 +14766,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
         <v>363</v>
       </c>
@@ -14864,7 +14786,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="15" t="s">
         <v>363</v>
       </c>
@@ -14884,7 +14806,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="12" t="s">
         <v>369</v>
       </c>
@@ -14904,7 +14826,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="15" t="s">
         <v>369</v>
       </c>
@@ -14924,7 +14846,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="12" t="s">
         <v>369</v>
       </c>
@@ -14944,7 +14866,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="15" t="s">
         <v>369</v>
       </c>
@@ -14964,7 +14886,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="12" t="s">
         <v>369</v>
       </c>
@@ -14984,7 +14906,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="15" t="s">
         <v>369</v>
       </c>
@@ -15004,7 +14926,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
         <v>369</v>
       </c>
@@ -15024,7 +14946,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="15" t="s">
         <v>369</v>
       </c>
@@ -15044,7 +14966,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
         <v>378</v>
       </c>
@@ -15064,7 +14986,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="15" t="s">
         <v>378</v>
       </c>
@@ -15084,7 +15006,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
         <v>378</v>
       </c>
@@ -15104,7 +15026,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="15" t="s">
         <v>378</v>
       </c>
@@ -15124,7 +15046,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="12" t="s">
         <v>378</v>
       </c>
@@ -15144,7 +15066,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="15" t="s">
         <v>378</v>
       </c>
@@ -15164,7 +15086,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="12" t="s">
         <v>378</v>
       </c>
@@ -15184,7 +15106,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="15" t="s">
         <v>386</v>
       </c>
@@ -15204,7 +15126,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="12" t="s">
         <v>386</v>
       </c>
@@ -15224,7 +15146,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="15" t="s">
         <v>386</v>
       </c>
@@ -15244,7 +15166,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="12" t="s">
         <v>386</v>
       </c>
@@ -15264,7 +15186,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="15" t="s">
         <v>386</v>
       </c>
@@ -15284,7 +15206,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="12" t="s">
         <v>386</v>
       </c>
@@ -15304,7 +15226,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="15" t="s">
         <v>386</v>
       </c>
@@ -15324,7 +15246,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="12" t="s">
         <v>394</v>
       </c>
@@ -15344,7 +15266,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="15" t="s">
         <v>394</v>
       </c>
@@ -15364,7 +15286,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
         <v>394</v>
       </c>
@@ -15384,7 +15306,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="15" t="s">
         <v>394</v>
       </c>
@@ -15404,7 +15326,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="12" t="s">
         <v>394</v>
       </c>
@@ -15424,7 +15346,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="15" t="s">
         <v>394</v>
       </c>
@@ -15444,7 +15366,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="12" t="s">
         <v>394</v>
       </c>
@@ -15464,7 +15386,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="15" t="s">
         <v>394</v>
       </c>
@@ -15484,7 +15406,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="12" t="s">
         <v>394</v>
       </c>
@@ -15504,7 +15426,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="15" t="s">
         <v>394</v>
       </c>
@@ -15524,7 +15446,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="12" t="s">
         <v>394</v>
       </c>
@@ -15544,7 +15466,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="15" t="s">
         <v>394</v>
       </c>
@@ -15564,7 +15486,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="12" t="s">
         <v>394</v>
       </c>
@@ -15584,7 +15506,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="15" t="s">
         <v>394</v>
       </c>
@@ -15604,7 +15526,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="12" t="s">
         <v>394</v>
       </c>
@@ -15624,7 +15546,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="15" t="s">
         <v>394</v>
       </c>
@@ -15644,7 +15566,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="12" t="s">
         <v>394</v>
       </c>
@@ -15664,7 +15586,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="15" t="s">
         <v>394</v>
       </c>
@@ -15684,7 +15606,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="12" t="s">
         <v>413</v>
       </c>
@@ -15704,7 +15626,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D334" s="1"/>
     </row>
   </sheetData>
@@ -15713,16 +15635,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>432</v>
       </c>
@@ -15733,7 +15655,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -15750,7 +15672,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>2</v>
       </c>
@@ -15767,7 +15689,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -15784,7 +15706,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>4</v>
       </c>
@@ -15801,7 +15723,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>5</v>
       </c>
@@ -15818,7 +15740,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>6</v>
       </c>
@@ -15835,7 +15757,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>7</v>
       </c>
@@ -15852,7 +15774,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>8</v>
       </c>
@@ -15869,7 +15791,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>9</v>
       </c>
@@ -15886,7 +15808,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>10</v>
       </c>
@@ -15903,7 +15825,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>11</v>
       </c>
@@ -15911,7 +15833,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>12</v>
       </c>
@@ -15919,7 +15841,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>13</v>
       </c>
@@ -15927,7 +15849,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>14</v>
       </c>

--- a/dat/variable_list-EcS_v3.xlsx
+++ b/dat/variable_list-EcS_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris\Documents\Workspace\respond-wp2-ecs\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FC9FD5-C74E-4FF9-9E96-FA94CFD5FB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016B111C-CAAA-4307-8AF6-D3EC050D17FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="487">
   <si>
     <t>label</t>
   </si>
@@ -1707,8 +1707,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G346" totalsRowShown="0">
-  <autoFilter ref="A1:G346" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G344" totalsRowShown="0">
+  <autoFilter ref="A1:G344" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="label"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="study"/>
@@ -2019,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G346"/>
+  <dimension ref="A1:G344"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="H176" sqref="H176"/>
+      <selection activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5497,39 +5497,39 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+      <c r="A174" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B174" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-      <c r="D174" t="s">
-        <v>233</v>
-      </c>
-      <c r="E174" t="s">
+      <c r="B174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3">
+        <v>2</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E174" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F174" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
+      <c r="A175" t="s">
         <v>213</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3">
-        <v>2</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E175" s="3" t="s">
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>234</v>
+      </c>
+      <c r="E175" t="s">
         <v>15</v>
       </c>
       <c r="F175" t="s">
@@ -5547,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E176" t="s">
         <v>15</v>
@@ -5567,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E177" t="s">
         <v>15</v>
@@ -5587,7 +5587,7 @@
         <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E178" t="s">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E179" t="s">
         <v>15</v>
@@ -5617,39 +5617,39 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>213</v>
-      </c>
-      <c r="B180" t="s">
-        <v>7</v>
-      </c>
-      <c r="C180">
-        <v>2</v>
-      </c>
-      <c r="D180" t="s">
-        <v>238</v>
-      </c>
-      <c r="E180" t="s">
+      <c r="A180" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="3">
+        <v>1</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E180" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F180" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
+      <c r="A181" t="s">
         <v>239</v>
       </c>
-      <c r="B181" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181" s="3">
-        <v>1</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E181" s="3" t="s">
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>241</v>
+      </c>
+      <c r="E181" t="s">
         <v>15</v>
       </c>
       <c r="F181" t="s">
@@ -5667,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E182" t="s">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E183" t="s">
         <v>15</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E184" t="s">
         <v>15</v>
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E185" t="s">
         <v>15</v>
@@ -5747,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E186" t="s">
         <v>15</v>
@@ -5757,23 +5757,23 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+      <c r="A187" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B187" t="s">
-        <v>7</v>
-      </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-      <c r="D187" t="s">
-        <v>245</v>
-      </c>
-      <c r="E187" t="s">
+      <c r="B187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="3">
+        <v>2</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E187" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F187" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -5784,32 +5784,32 @@
         <v>7</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E188" t="s">
         <v>15</v>
       </c>
       <c r="F188" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
+      <c r="A189" t="s">
         <v>239</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C189" s="3">
-        <v>2</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E189" s="3" t="s">
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s">
+        <v>248</v>
+      </c>
+      <c r="E189" t="s">
         <v>15</v>
       </c>
       <c r="F189" t="s">
@@ -5817,62 +5817,62 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>239</v>
-      </c>
-      <c r="B190" t="s">
-        <v>7</v>
-      </c>
-      <c r="C190">
-        <v>2</v>
-      </c>
-      <c r="D190" t="s">
-        <v>247</v>
-      </c>
-      <c r="E190" t="s">
-        <v>15</v>
-      </c>
-      <c r="F190" t="s">
-        <v>469</v>
+      <c r="A190" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E191" t="s">
         <v>15</v>
       </c>
       <c r="F191" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
+      <c r="A192" t="s">
         <v>249</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192" s="3">
-        <v>1</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F192" s="3" t="s">
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>252</v>
+      </c>
+      <c r="E192" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E193" t="s">
         <v>15</v>
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E195" t="s">
         <v>15</v>
@@ -5947,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E196" t="s">
         <v>15</v>
@@ -5967,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E197" t="s">
         <v>15</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E198" t="s">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E199" t="s">
         <v>15</v>
@@ -6027,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E200" t="s">
         <v>15</v>
@@ -6047,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E201" t="s">
         <v>15</v>
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E202" t="s">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E203" t="s">
         <v>15</v>
@@ -6097,100 +6097,100 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+      <c r="A204" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B204" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204">
-        <v>1</v>
+      <c r="B204" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="4">
+        <v>2</v>
       </c>
       <c r="D204" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E204" t="s">
         <v>15</v>
       </c>
       <c r="F204" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+      <c r="A205" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>263</v>
-      </c>
-      <c r="E205" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="F205" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206" s="4">
-        <v>2</v>
-      </c>
-      <c r="D206" t="s">
-        <v>264</v>
-      </c>
-      <c r="E206" t="s">
-        <v>15</v>
-      </c>
-      <c r="F206" t="s">
-        <v>469</v>
+      <c r="A206" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="3">
+        <v>1</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B207" s="4" t="s">
+      <c r="A207" t="s">
+        <v>267</v>
+      </c>
+      <c r="B207" t="s">
         <v>7</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>266</v>
+        <v>269</v>
+      </c>
+      <c r="E207" t="s">
+        <v>15</v>
       </c>
       <c r="F207" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="3" t="s">
+      <c r="A208" t="s">
         <v>267</v>
       </c>
-      <c r="B208" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208" s="3">
-        <v>1</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F208" s="3" t="s">
-        <v>427</v>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>270</v>
+      </c>
+      <c r="E208" t="s">
+        <v>15</v>
+      </c>
+      <c r="F208" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -6204,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E209" t="s">
         <v>15</v>
@@ -6224,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="D210" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E210" t="s">
         <v>15</v>
@@ -6244,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E211" t="s">
         <v>15</v>
@@ -6264,7 +6264,7 @@
         <v>1</v>
       </c>
       <c r="D212" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E212" t="s">
         <v>15</v>
@@ -6274,19 +6274,19 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+      <c r="A213" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B213" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-      <c r="D213" t="s">
-        <v>273</v>
-      </c>
-      <c r="E213" t="s">
+      <c r="B213" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="3">
+        <v>1</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E213" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F213" t="s">
@@ -6304,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E214" t="s">
         <v>15</v>
@@ -6314,19 +6314,19 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
+      <c r="A215" t="s">
         <v>267</v>
       </c>
-      <c r="B215" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" s="3">
-        <v>1</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E215" s="3" t="s">
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215" t="s">
+        <v>277</v>
+      </c>
+      <c r="E215" t="s">
         <v>15</v>
       </c>
       <c r="F215" t="s">
@@ -6344,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E216" t="s">
         <v>15</v>
@@ -6364,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E217" t="s">
         <v>15</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="D218" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E218" t="s">
         <v>15</v>
@@ -6400,11 +6400,8 @@
       <c r="B219" t="s">
         <v>7</v>
       </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
       <c r="D219" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E219" t="s">
         <v>15</v>
@@ -6414,59 +6411,62 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>267</v>
-      </c>
-      <c r="B220" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-      <c r="D220" t="s">
-        <v>280</v>
-      </c>
-      <c r="E220" t="s">
-        <v>15</v>
-      </c>
-      <c r="F220" t="s">
-        <v>416</v>
+      <c r="A220" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="3">
+        <v>1</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B221" t="s">
         <v>7</v>
       </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
       <c r="D221" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E221" t="s">
         <v>15</v>
       </c>
       <c r="F221" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
+      <c r="A222" t="s">
         <v>282</v>
       </c>
-      <c r="B222" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" s="3">
-        <v>1</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F222" s="3" t="s">
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222" t="s">
+        <v>285</v>
+      </c>
+      <c r="E222" t="s">
+        <v>15</v>
+      </c>
+      <c r="F222" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6481,7 +6481,7 @@
         <v>1</v>
       </c>
       <c r="D223" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E223" t="s">
         <v>15</v>
@@ -6491,23 +6491,23 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+      <c r="A224" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B224" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-      <c r="D224" t="s">
-        <v>285</v>
-      </c>
-      <c r="E224" t="s">
-        <v>15</v>
-      </c>
-      <c r="F224" t="s">
-        <v>427</v>
+      <c r="B224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" s="3">
+        <v>2</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -6518,35 +6518,35 @@
         <v>7</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E225" t="s">
         <v>15</v>
       </c>
       <c r="F225" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="3" t="s">
+      <c r="A226" t="s">
         <v>282</v>
       </c>
-      <c r="B226" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C226" s="3">
-        <v>2</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F226" s="3" t="s">
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>288</v>
+      </c>
+      <c r="E226" t="s">
+        <v>15</v>
+      </c>
+      <c r="F226" t="s">
         <v>469</v>
       </c>
     </row>
@@ -6560,8 +6560,8 @@
       <c r="C227">
         <v>2</v>
       </c>
-      <c r="D227" t="s">
-        <v>287</v>
+      <c r="D227" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="E227" t="s">
         <v>15</v>
@@ -6572,47 +6572,47 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E228" t="s">
         <v>15</v>
       </c>
       <c r="F228" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
       </c>
       <c r="C229">
-        <v>2</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>289</v>
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
+        <v>292</v>
       </c>
       <c r="E229" t="s">
         <v>15</v>
       </c>
       <c r="F229" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
@@ -6621,18 +6621,18 @@
         <v>1</v>
       </c>
       <c r="D230" t="s">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="E230" t="s">
         <v>15</v>
       </c>
       <c r="F230" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
@@ -6641,18 +6641,18 @@
         <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E231" t="s">
         <v>15</v>
       </c>
       <c r="F231" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -6661,7 +6661,7 @@
         <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>42</v>
+        <v>296</v>
       </c>
       <c r="E232" t="s">
         <v>15</v>
@@ -6681,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="D233" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E233" t="s">
         <v>15</v>
@@ -6701,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E234" t="s">
         <v>15</v>
@@ -6718,16 +6718,16 @@
         <v>7</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E235" t="s">
         <v>15</v>
       </c>
       <c r="F235" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -6738,61 +6738,61 @@
         <v>7</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E236" t="s">
         <v>15</v>
       </c>
       <c r="F236" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E237" t="s">
         <v>15</v>
       </c>
       <c r="F237" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D238" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E238" t="s">
         <v>15</v>
       </c>
       <c r="F238" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -6801,7 +6801,7 @@
         <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E239" t="s">
         <v>15</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -6821,7 +6821,7 @@
         <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E240" t="s">
         <v>15</v>
@@ -6841,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E241" t="s">
         <v>15</v>
@@ -6861,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="D242" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E242" t="s">
         <v>15</v>
@@ -6878,16 +6878,16 @@
         <v>7</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
       </c>
       <c r="F243" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -6898,16 +6898,16 @@
         <v>7</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E244" t="s">
         <v>15</v>
       </c>
       <c r="F244" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -6921,7 +6921,7 @@
         <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E245" t="s">
         <v>15</v>
@@ -6931,62 +6931,62 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>304</v>
-      </c>
-      <c r="B246" t="s">
-        <v>7</v>
-      </c>
-      <c r="C246">
-        <v>2</v>
-      </c>
-      <c r="D246" t="s">
-        <v>310</v>
-      </c>
-      <c r="E246" t="s">
-        <v>15</v>
-      </c>
-      <c r="F246" t="s">
-        <v>469</v>
+      <c r="A246" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" s="3">
+        <v>1</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B247" t="s">
         <v>7</v>
       </c>
       <c r="C247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D247" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E247" t="s">
         <v>15</v>
       </c>
       <c r="F247" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="3" t="s">
+      <c r="A248" t="s">
         <v>312</v>
       </c>
-      <c r="B248" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C248" s="3">
-        <v>1</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E248" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F248" s="3" t="s">
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248" t="s">
+        <v>315</v>
+      </c>
+      <c r="E248" t="s">
+        <v>15</v>
+      </c>
+      <c r="F248" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="D249" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E249" t="s">
         <v>15</v>
@@ -7021,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="D250" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -7041,7 +7041,7 @@
         <v>1</v>
       </c>
       <c r="D251" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E251" t="s">
         <v>15</v>
@@ -7061,7 +7061,7 @@
         <v>1</v>
       </c>
       <c r="D252" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E252" t="s">
         <v>15</v>
@@ -7081,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="D253" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E253" t="s">
         <v>15</v>
@@ -7092,42 +7092,42 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B254" t="s">
         <v>7</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E254" t="s">
         <v>15</v>
       </c>
       <c r="F254" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B255" t="s">
         <v>7</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>320</v>
+        <v>473</v>
       </c>
       <c r="E255" t="s">
         <v>15</v>
       </c>
       <c r="F255" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -7141,13 +7141,13 @@
         <v>2</v>
       </c>
       <c r="D256" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E256" t="s">
         <v>15</v>
       </c>
       <c r="F256" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -7161,18 +7161,18 @@
         <v>2</v>
       </c>
       <c r="D257" t="s">
-        <v>473</v>
+        <v>350</v>
       </c>
       <c r="E257" t="s">
         <v>15</v>
       </c>
       <c r="F257" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
@@ -7181,18 +7181,18 @@
         <v>2</v>
       </c>
       <c r="D258" t="s">
-        <v>323</v>
+        <v>476</v>
       </c>
       <c r="E258" t="s">
         <v>15</v>
       </c>
       <c r="F258" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
@@ -7201,18 +7201,18 @@
         <v>2</v>
       </c>
       <c r="D259" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="E259" t="s">
         <v>15</v>
       </c>
       <c r="F259" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
@@ -7221,7 +7221,7 @@
         <v>2</v>
       </c>
       <c r="D260" t="s">
-        <v>476</v>
+        <v>327</v>
       </c>
       <c r="E260" t="s">
         <v>15</v>
@@ -7241,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="D261" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E261" t="s">
         <v>15</v>
@@ -7261,7 +7261,7 @@
         <v>2</v>
       </c>
       <c r="D262" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E262" t="s">
         <v>15</v>
@@ -7281,7 +7281,7 @@
         <v>2</v>
       </c>
       <c r="D263" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E263" t="s">
         <v>15</v>
@@ -7301,7 +7301,7 @@
         <v>2</v>
       </c>
       <c r="D264" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
@@ -7321,7 +7321,7 @@
         <v>2</v>
       </c>
       <c r="D265" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E265" t="s">
         <v>15</v>
@@ -7341,7 +7341,7 @@
         <v>2</v>
       </c>
       <c r="D266" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E266" t="s">
         <v>15</v>
@@ -7361,7 +7361,7 @@
         <v>2</v>
       </c>
       <c r="D267" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E267" t="s">
         <v>15</v>
@@ -7381,7 +7381,7 @@
         <v>2</v>
       </c>
       <c r="D268" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E268" t="s">
         <v>15</v>
@@ -7401,7 +7401,7 @@
         <v>2</v>
       </c>
       <c r="D269" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E269" t="s">
         <v>15</v>
@@ -7421,7 +7421,7 @@
         <v>2</v>
       </c>
       <c r="D270" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E270" t="s">
         <v>15</v>
@@ -7441,7 +7441,7 @@
         <v>2</v>
       </c>
       <c r="D271" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E271" t="s">
         <v>15</v>
@@ -7461,7 +7461,7 @@
         <v>2</v>
       </c>
       <c r="D272" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E272" t="s">
         <v>15</v>
@@ -7470,7 +7470,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>74</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>2</v>
       </c>
       <c r="D273" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E273" t="s">
         <v>15</v>
@@ -7490,9 +7490,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="B274" t="s">
         <v>7</v>
@@ -7501,7 +7501,7 @@
         <v>2</v>
       </c>
       <c r="D274" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E274" t="s">
         <v>15</v>
@@ -7510,9 +7510,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="B275" t="s">
         <v>7</v>
@@ -7521,7 +7521,7 @@
         <v>2</v>
       </c>
       <c r="D275" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E275" t="s">
         <v>15</v>
@@ -7530,9 +7530,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B276" t="s">
         <v>7</v>
@@ -7541,7 +7541,7 @@
         <v>2</v>
       </c>
       <c r="D276" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E276" t="s">
         <v>15</v>
@@ -7550,9 +7550,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B277" t="s">
         <v>7</v>
@@ -7561,7 +7561,7 @@
         <v>2</v>
       </c>
       <c r="D277" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E277" t="s">
         <v>15</v>
@@ -7570,9 +7570,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="B278" t="s">
         <v>7</v>
@@ -7581,7 +7581,7 @@
         <v>2</v>
       </c>
       <c r="D278" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E278" t="s">
         <v>15</v>
@@ -7590,9 +7590,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="B279" t="s">
         <v>7</v>
@@ -7601,7 +7601,7 @@
         <v>2</v>
       </c>
       <c r="D279" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E279" t="s">
         <v>15</v>
@@ -7610,7 +7610,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>321</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>2</v>
       </c>
       <c r="D280" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E280" t="s">
         <v>15</v>
@@ -7630,7 +7630,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>321</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>2</v>
       </c>
       <c r="D281" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E281" t="s">
         <v>15</v>
@@ -7650,7 +7650,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>321</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>2</v>
       </c>
       <c r="D282" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E282" t="s">
         <v>15</v>
@@ -7670,7 +7670,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>321</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>2</v>
       </c>
       <c r="D283" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E283" t="s">
         <v>15</v>
@@ -7690,7 +7690,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>321</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>2</v>
       </c>
       <c r="D284" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E284" t="s">
         <v>15</v>
@@ -7710,9 +7710,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="B285" t="s">
         <v>7</v>
@@ -7721,7 +7721,7 @@
         <v>2</v>
       </c>
       <c r="D285" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E285" t="s">
         <v>15</v>
@@ -7730,9 +7730,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="B286" t="s">
         <v>7</v>
@@ -7741,7 +7741,7 @@
         <v>2</v>
       </c>
       <c r="D286" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E286" t="s">
         <v>15</v>
@@ -7750,9 +7750,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -7761,7 +7761,7 @@
         <v>2</v>
       </c>
       <c r="D287" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E287" t="s">
         <v>15</v>
@@ -7770,90 +7770,90 @@
         <v>469</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>354</v>
-      </c>
-      <c r="B288" t="s">
-        <v>7</v>
-      </c>
-      <c r="C288">
-        <v>2</v>
-      </c>
-      <c r="D288" t="s">
-        <v>356</v>
-      </c>
-      <c r="E288" t="s">
-        <v>15</v>
-      </c>
-      <c r="F288" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>357</v>
-      </c>
-      <c r="B289" t="s">
-        <v>7</v>
-      </c>
-      <c r="C289">
-        <v>2</v>
-      </c>
-      <c r="D289" t="s">
-        <v>358</v>
-      </c>
-      <c r="E289" t="s">
-        <v>15</v>
-      </c>
-      <c r="F289" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A290" s="6" t="s">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B290" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C290" s="6">
-        <v>1</v>
-      </c>
-      <c r="D290" s="6" t="s">
+      <c r="B288" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" s="6">
+        <v>1</v>
+      </c>
+      <c r="D288" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="E290" s="6" t="s">
+      <c r="E288" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="F290" s="6" t="s">
+      <c r="F288" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G290" t="s">
+      <c r="G288" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A291" s="6" t="s">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B291" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C291" s="6">
-        <v>1</v>
-      </c>
-      <c r="D291" s="6" t="s">
+      <c r="B289" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="6">
+        <v>1</v>
+      </c>
+      <c r="D289" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="E291" s="6" t="s">
+      <c r="E289" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="F291" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F289" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>363</v>
+      </c>
+      <c r="B290" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>364</v>
+      </c>
+      <c r="E290" t="s">
+        <v>265</v>
+      </c>
+      <c r="F290" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>363</v>
+      </c>
+      <c r="B291" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291" t="s">
+        <v>365</v>
+      </c>
+      <c r="E291" t="s">
+        <v>366</v>
+      </c>
+      <c r="F291" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>363</v>
       </c>
@@ -7863,17 +7863,17 @@
       <c r="C292">
         <v>1</v>
       </c>
-      <c r="D292" t="s">
-        <v>364</v>
+      <c r="D292" s="7" t="s">
+        <v>430</v>
       </c>
       <c r="E292" t="s">
-        <v>265</v>
+        <v>15</v>
       </c>
       <c r="F292" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>363</v>
       </c>
@@ -7883,19 +7883,19 @@
       <c r="C293">
         <v>1</v>
       </c>
-      <c r="D293" t="s">
-        <v>365</v>
+      <c r="D293" s="7" t="s">
+        <v>431</v>
       </c>
       <c r="E293" t="s">
-        <v>366</v>
+        <v>15</v>
       </c>
       <c r="F293" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
@@ -7903,8 +7903,8 @@
       <c r="C294">
         <v>1</v>
       </c>
-      <c r="D294" s="7" t="s">
-        <v>430</v>
+      <c r="D294" t="s">
+        <v>370</v>
       </c>
       <c r="E294" t="s">
         <v>15</v>
@@ -7913,9 +7913,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -7923,8 +7923,8 @@
       <c r="C295">
         <v>1</v>
       </c>
-      <c r="D295" s="7" t="s">
-        <v>431</v>
+      <c r="D295" t="s">
+        <v>371</v>
       </c>
       <c r="E295" t="s">
         <v>15</v>
@@ -7933,7 +7933,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>369</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="D296" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E296" t="s">
         <v>15</v>
@@ -7953,7 +7953,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>369</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="D297" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E297" t="s">
         <v>15</v>
@@ -7973,7 +7973,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>369</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>1</v>
       </c>
       <c r="D298" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E298" t="s">
         <v>15</v>
@@ -7993,7 +7993,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>369</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>1</v>
       </c>
       <c r="D299" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E299" t="s">
         <v>15</v>
@@ -8013,7 +8013,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>369</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="D300" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E300" t="s">
         <v>15</v>
@@ -8033,7 +8033,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>369</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="D301" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E301" t="s">
         <v>15</v>
@@ -8053,9 +8053,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B302" t="s">
         <v>7</v>
@@ -8064,7 +8064,7 @@
         <v>1</v>
       </c>
       <c r="D302" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E302" t="s">
         <v>15</v>
@@ -8073,9 +8073,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B303" t="s">
         <v>7</v>
@@ -8084,7 +8084,7 @@
         <v>1</v>
       </c>
       <c r="D303" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E303" t="s">
         <v>15</v>
@@ -8093,7 +8093,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>378</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="D304" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E304" t="s">
         <v>15</v>
@@ -8124,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="D305" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E305" t="s">
         <v>15</v>
@@ -8144,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="D306" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E306" t="s">
         <v>15</v>
@@ -8164,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="D307" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E307" t="s">
         <v>15</v>
@@ -8184,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="D308" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E308" t="s">
         <v>15</v>
@@ -8195,7 +8195,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B309" t="s">
         <v>7</v>
@@ -8204,7 +8204,7 @@
         <v>1</v>
       </c>
       <c r="D309" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E309" t="s">
         <v>15</v>
@@ -8215,7 +8215,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B310" t="s">
         <v>7</v>
@@ -8224,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="D310" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E310" t="s">
         <v>15</v>
@@ -8244,7 +8244,7 @@
         <v>1</v>
       </c>
       <c r="D311" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E311" t="s">
         <v>15</v>
@@ -8264,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="D312" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E312" t="s">
         <v>15</v>
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="D313" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E313" t="s">
         <v>15</v>
@@ -8304,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="D314" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E314" t="s">
         <v>15</v>
@@ -8324,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="D315" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E315" t="s">
         <v>15</v>
@@ -8335,7 +8335,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B316" t="s">
         <v>7</v>
@@ -8344,7 +8344,7 @@
         <v>1</v>
       </c>
       <c r="D316" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E316" t="s">
         <v>15</v>
@@ -8355,7 +8355,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -8364,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="D317" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E317" t="s">
         <v>15</v>
@@ -8384,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="D318" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E318" t="s">
         <v>15</v>
@@ -8403,8 +8403,8 @@
       <c r="C319">
         <v>1</v>
       </c>
-      <c r="D319" t="s">
-        <v>396</v>
+      <c r="D319" s="8" t="s">
+        <v>398</v>
       </c>
       <c r="E319" t="s">
         <v>15</v>
@@ -8424,7 +8424,7 @@
         <v>1</v>
       </c>
       <c r="D320" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E320" t="s">
         <v>15</v>
@@ -8443,8 +8443,8 @@
       <c r="C321">
         <v>1</v>
       </c>
-      <c r="D321" s="8" t="s">
-        <v>398</v>
+      <c r="D321" t="s">
+        <v>400</v>
       </c>
       <c r="E321" t="s">
         <v>15</v>
@@ -8464,7 +8464,7 @@
         <v>1</v>
       </c>
       <c r="D322" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E322" t="s">
         <v>15</v>
@@ -8484,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="D323" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E323" t="s">
         <v>15</v>
@@ -8504,7 +8504,7 @@
         <v>1</v>
       </c>
       <c r="D324" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E324" t="s">
         <v>15</v>
@@ -8524,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="D325" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E325" t="s">
         <v>15</v>
@@ -8544,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="D326" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E326" t="s">
         <v>15</v>
@@ -8564,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="D327" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E327" t="s">
         <v>15</v>
@@ -8584,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="D328" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E328" t="s">
         <v>15</v>
@@ -8604,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="D329" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E329" t="s">
         <v>15</v>
@@ -8624,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="D330" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E330" t="s">
         <v>15</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="D331" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E331" t="s">
         <v>15</v>
@@ -8664,7 +8664,7 @@
         <v>1</v>
       </c>
       <c r="D332" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E332" t="s">
         <v>15</v>
@@ -8681,16 +8681,16 @@
         <v>7</v>
       </c>
       <c r="C333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D333" t="s">
-        <v>410</v>
+        <v>474</v>
       </c>
       <c r="E333" t="s">
         <v>15</v>
       </c>
       <c r="F333" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -8701,41 +8701,41 @@
         <v>7</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D334" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E334" t="s">
         <v>15</v>
       </c>
       <c r="F334" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="B335" t="s">
         <v>7</v>
       </c>
       <c r="C335">
-        <v>2</v>
-      </c>
-      <c r="D335" t="s">
-        <v>474</v>
+        <v>1</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="E335" t="s">
         <v>15</v>
       </c>
       <c r="F335" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>394</v>
+        <v>477</v>
       </c>
       <c r="B336" t="s">
         <v>7</v>
@@ -8744,27 +8744,27 @@
         <v>2</v>
       </c>
       <c r="D336" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="E336" t="s">
         <v>15</v>
       </c>
       <c r="F336" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="B337" t="s">
         <v>7</v>
       </c>
       <c r="C337">
-        <v>1</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>291</v>
+        <v>2</v>
+      </c>
+      <c r="D337" t="s">
+        <v>480</v>
       </c>
       <c r="E337" t="s">
         <v>15</v>
@@ -8784,7 +8784,7 @@
         <v>2</v>
       </c>
       <c r="D338" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E338" t="s">
         <v>15</v>
@@ -8804,7 +8804,7 @@
         <v>2</v>
       </c>
       <c r="D339" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E339" t="s">
         <v>15</v>
@@ -8824,7 +8824,7 @@
         <v>2</v>
       </c>
       <c r="D340" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E340" t="s">
         <v>15</v>
@@ -8844,7 +8844,7 @@
         <v>2</v>
       </c>
       <c r="D341" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E341" t="s">
         <v>15</v>
@@ -8864,7 +8864,7 @@
         <v>2</v>
       </c>
       <c r="D342" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E342" t="s">
         <v>15</v>
@@ -8884,7 +8884,7 @@
         <v>2</v>
       </c>
       <c r="D343" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E343" t="s">
         <v>15</v>
@@ -8904,52 +8904,12 @@
         <v>2</v>
       </c>
       <c r="D344" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="E344" t="s">
         <v>15</v>
       </c>
       <c r="F344" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>477</v>
-      </c>
-      <c r="B345" t="s">
-        <v>7</v>
-      </c>
-      <c r="C345">
-        <v>2</v>
-      </c>
-      <c r="D345" t="s">
-        <v>486</v>
-      </c>
-      <c r="E345" t="s">
-        <v>15</v>
-      </c>
-      <c r="F345" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>477</v>
-      </c>
-      <c r="B346" t="s">
-        <v>7</v>
-      </c>
-      <c r="C346">
-        <v>2</v>
-      </c>
-      <c r="D346" t="s">
-        <v>472</v>
-      </c>
-      <c r="E346" t="s">
-        <v>15</v>
-      </c>
-      <c r="F346" t="s">
         <v>416</v>
       </c>
     </row>

--- a/dat/variable_list-EcS_v3.xlsx
+++ b/dat/variable_list-EcS_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris\Documents\Workspace\respond-wp2-ecs\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E52BC1E-5E89-4CFE-A8EB-3D46095DB4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9639E706-47F0-4A9C-A19D-13A5158E5A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3460" uniqueCount="516">
   <si>
     <t>label</t>
   </si>
@@ -1539,6 +1539,42 @@
   </si>
   <si>
     <t>q1503_work_now</t>
+  </si>
+  <si>
+    <t>age_cat</t>
+  </si>
+  <si>
+    <t>age_continuous</t>
+  </si>
+  <si>
+    <t>Eda con Salud</t>
+  </si>
+  <si>
+    <t>employment_st</t>
+  </si>
+  <si>
+    <t>employment_ty</t>
+  </si>
+  <si>
+    <t>Edad con SALUD</t>
+  </si>
+  <si>
+    <t>hc_worker</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>children_hh</t>
+  </si>
+  <si>
+    <t>nofchildren</t>
+  </si>
+  <si>
+    <t>hh_size</t>
+  </si>
+  <si>
+    <t>hhquartile</t>
   </si>
 </sst>
 </file>
@@ -1765,8 +1801,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G353" totalsRowShown="0">
-  <autoFilter ref="A1:G353" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G359" totalsRowShown="0">
+  <autoFilter ref="A1:G359" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="label"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="study"/>
@@ -2077,10 +2113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G353"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="C370" sqref="C370"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2116,7 +2152,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2124,35 +2160,24 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>416</v>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>486</v>
-      </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -2161,13 +2186,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>487</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2178,21 +2203,17 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -2200,33 +2221,39 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>488</v>
+      <c r="D6" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>503</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>417</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -2235,18 +2262,12 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>416</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -2255,18 +2276,12 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>416</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -2275,38 +2290,26 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>417</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>506</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>416</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -2315,18 +2318,12 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>489</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>417</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -2335,18 +2332,18 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>415</v>
+        <v>503</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -2355,18 +2352,12 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>416</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -2375,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -2386,7 +2377,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -2395,18 +2386,12 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>502</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>416</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -2415,10 +2400,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>501</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
         <v>416</v>
@@ -2426,7 +2411,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -2435,18 +2420,12 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>500</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>416</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -2455,18 +2434,18 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>499</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -2475,18 +2454,12 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>490</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>416</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -2495,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>491</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -2506,27 +2479,21 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>509</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>492</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>416</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -2535,18 +2502,18 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -2555,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>494</v>
+        <v>415</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -2566,7 +2533,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -2575,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>495</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -2586,7 +2553,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -2595,18 +2562,12 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>496</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>416</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -2615,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>497</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -2626,7 +2587,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -2635,18 +2596,12 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>498</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>416</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -2655,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>502</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -2666,7 +2621,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -2675,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>501</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -2686,27 +2641,18 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
       <c r="D31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>416</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>418</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -2715,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>419</v>
+        <v>500</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
         <v>416</v>
@@ -2726,7 +2672,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>418</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -2735,10 +2681,10 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>420</v>
+        <v>499</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
         <v>416</v>
@@ -2746,7 +2692,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>418</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -2755,18 +2701,12 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>421</v>
-      </c>
-      <c r="E34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" t="s">
-        <v>416</v>
+        <v>512</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>418</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -2775,10 +2715,10 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>422</v>
+        <v>490</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
         <v>416</v>
@@ -2786,7 +2726,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -2795,10 +2735,10 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>491</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
         <v>416</v>
@@ -2806,7 +2746,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -2815,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>492</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
         <v>416</v>
@@ -2826,7 +2766,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -2835,10 +2775,10 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>493</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
         <v>416</v>
@@ -2846,7 +2786,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -2855,10 +2795,10 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>494</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
         <v>416</v>
@@ -2866,7 +2806,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -2875,10 +2815,10 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>495</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
         <v>416</v>
@@ -2886,7 +2826,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -2895,10 +2835,10 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>496</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
         <v>416</v>
@@ -2906,7 +2846,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -2915,10 +2855,10 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>497</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
         <v>416</v>
@@ -2926,7 +2866,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -2935,10 +2875,10 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>498</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
         <v>416</v>
@@ -2946,27 +2886,18 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
       <c r="D44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" t="s">
-        <v>416</v>
+        <v>514</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -2975,10 +2906,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
         <v>416</v>
@@ -2986,7 +2917,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -2995,10 +2926,10 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
         <v>416</v>
@@ -3006,7 +2937,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -3015,10 +2946,10 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>515</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
         <v>416</v>
@@ -3026,7 +2957,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>418</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -3035,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>419</v>
       </c>
       <c r="E48" t="s">
         <v>15</v>
@@ -3046,7 +2977,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>418</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -3055,10 +2986,10 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>420</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F49" t="s">
         <v>416</v>
@@ -3066,7 +2997,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>418</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -3075,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>421</v>
       </c>
       <c r="E50" t="s">
         <v>15</v>
@@ -3086,7 +3017,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -3095,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>422</v>
       </c>
       <c r="E51" t="s">
         <v>15</v>
@@ -3106,7 +3037,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -3115,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
         <v>15</v>
@@ -3126,7 +3057,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -3135,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E53" t="s">
         <v>15</v>
@@ -3146,7 +3077,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -3155,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E54" t="s">
         <v>15</v>
@@ -3166,7 +3097,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -3175,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E55" t="s">
         <v>15</v>
@@ -3186,7 +3117,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -3195,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E56" t="s">
         <v>15</v>
@@ -3206,147 +3137,147 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
         <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E58" t="s">
         <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E59" t="s">
         <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
         <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E62" t="s">
         <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E63" t="s">
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -3355,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E64" t="s">
         <v>15</v>
@@ -3366,7 +3297,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -3375,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
@@ -3386,7 +3317,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -3395,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E66" t="s">
         <v>15</v>
@@ -3406,7 +3337,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -3415,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E67" t="s">
         <v>15</v>
@@ -3426,67 +3357,67 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>469</v>
+        <v>86</v>
       </c>
       <c r="E69" t="s">
         <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>470</v>
+        <v>88</v>
       </c>
       <c r="E70" t="s">
         <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -3495,7 +3426,7 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>471</v>
+        <v>76</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
@@ -3506,107 +3437,107 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>424</v>
+        <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E73" t="s">
         <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E74" t="s">
         <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E76" t="s">
         <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -3615,7 +3546,7 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E77" t="s">
         <v>15</v>
@@ -3626,27 +3557,27 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>477</v>
+        <v>96</v>
       </c>
       <c r="E78" t="s">
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -3655,10 +3586,10 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F79" t="s">
         <v>416</v>
@@ -3666,7 +3597,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -3675,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E80" t="s">
         <v>15</v>
@@ -3686,7 +3617,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -3695,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E81" t="s">
         <v>15</v>
@@ -3706,67 +3637,67 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>469</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>123</v>
+        <v>470</v>
       </c>
       <c r="E83" t="s">
         <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>124</v>
+        <v>471</v>
       </c>
       <c r="E84" t="s">
         <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>423</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -3775,18 +3706,18 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>125</v>
+        <v>424</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -3795,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
         <v>15</v>
@@ -3806,7 +3737,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -3815,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E87" t="s">
         <v>15</v>
@@ -3826,7 +3757,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -3834,8 +3765,8 @@
       <c r="C88">
         <v>1</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>128</v>
+      <c r="D88" t="s">
+        <v>113</v>
       </c>
       <c r="E88" t="s">
         <v>15</v>
@@ -3846,7 +3777,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -3855,18 +3786,18 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
       </c>
       <c r="F89" t="s">
-        <v>120</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -3875,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E90" t="s">
         <v>15</v>
@@ -3886,22 +3817,22 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="E91" t="s">
         <v>15</v>
       </c>
       <c r="F91" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3915,10 +3846,10 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E92" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F92" t="s">
         <v>416</v>
@@ -3935,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E93" t="s">
         <v>15</v>
@@ -3952,16 +3883,16 @@
         <v>7</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E94" t="s">
         <v>15</v>
       </c>
       <c r="F94" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3972,21 +3903,21 @@
         <v>7</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E95" t="s">
         <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -3995,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
@@ -4006,7 +3937,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -4015,18 +3946,18 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E97" t="s">
         <v>15</v>
       </c>
       <c r="F97" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -4035,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E98" t="s">
         <v>15</v>
@@ -4046,7 +3977,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -4055,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E99" t="s">
         <v>15</v>
@@ -4066,7 +3997,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -4075,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E100" t="s">
         <v>15</v>
@@ -4086,7 +4017,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -4095,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E101" t="s">
         <v>15</v>
@@ -4106,7 +4037,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -4114,39 +4045,39 @@
       <c r="C102">
         <v>1</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>144</v>
+      <c r="D102" t="s">
+        <v>129</v>
       </c>
       <c r="E102" t="s">
         <v>15</v>
       </c>
       <c r="F102" t="s">
-        <v>416</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E103" t="s">
         <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -4154,8 +4085,8 @@
       <c r="C104">
         <v>1</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>146</v>
+      <c r="D104" t="s">
+        <v>426</v>
       </c>
       <c r="E104" t="s">
         <v>15</v>
@@ -4166,7 +4097,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -4174,8 +4105,8 @@
       <c r="C105">
         <v>1</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>147</v>
+      <c r="D105" t="s">
+        <v>132</v>
       </c>
       <c r="E105" t="s">
         <v>15</v>
@@ -4186,7 +4117,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -4194,8 +4125,8 @@
       <c r="C106">
         <v>1</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>148</v>
+      <c r="D106" t="s">
+        <v>133</v>
       </c>
       <c r="E106" t="s">
         <v>15</v>
@@ -4206,42 +4137,42 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>149</v>
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>134</v>
       </c>
       <c r="E107" t="s">
         <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E108" t="s">
         <v>15</v>
       </c>
       <c r="F108" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -4254,8 +4185,8 @@
       <c r="C109">
         <v>1</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>151</v>
+      <c r="D109" t="s">
+        <v>137</v>
       </c>
       <c r="E109" t="s">
         <v>15</v>
@@ -4274,8 +4205,8 @@
       <c r="C110">
         <v>1</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>152</v>
+      <c r="D110" t="s">
+        <v>139</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
@@ -4294,8 +4225,8 @@
       <c r="C111">
         <v>1</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>153</v>
+      <c r="D111" t="s">
+        <v>140</v>
       </c>
       <c r="E111" t="s">
         <v>15</v>
@@ -4314,8 +4245,8 @@
       <c r="C112">
         <v>1</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>154</v>
+      <c r="D112" t="s">
+        <v>141</v>
       </c>
       <c r="E112" t="s">
         <v>15</v>
@@ -4334,8 +4265,8 @@
       <c r="C113">
         <v>1</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>155</v>
+      <c r="D113" t="s">
+        <v>142</v>
       </c>
       <c r="E113" t="s">
         <v>15</v>
@@ -4355,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E114" t="s">
         <v>15</v>
@@ -4375,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E115" t="s">
         <v>15</v>
@@ -4394,8 +4325,8 @@
       <c r="C116">
         <v>1</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>158</v>
+      <c r="D116" t="s">
+        <v>145</v>
       </c>
       <c r="E116" t="s">
         <v>15</v>
@@ -4415,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -4435,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E118" t="s">
         <v>15</v>
@@ -4454,8 +4385,8 @@
       <c r="C119">
         <v>1</v>
       </c>
-      <c r="D119" t="s">
-        <v>161</v>
+      <c r="D119" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="E119" t="s">
         <v>15</v>
@@ -4475,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E120" t="s">
         <v>15</v>
@@ -4495,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E121" t="s">
         <v>15</v>
@@ -4514,8 +4445,8 @@
       <c r="C122">
         <v>1</v>
       </c>
-      <c r="D122" t="s">
-        <v>164</v>
+      <c r="D122" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E122" t="s">
         <v>15</v>
@@ -4534,8 +4465,8 @@
       <c r="C123">
         <v>1</v>
       </c>
-      <c r="D123" t="s">
-        <v>165</v>
+      <c r="D123" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="E123" t="s">
         <v>15</v>
@@ -4555,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -4575,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E125" t="s">
         <v>15</v>
@@ -4595,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E126" t="s">
         <v>15</v>
@@ -4614,8 +4545,8 @@
       <c r="C127">
         <v>1</v>
       </c>
-      <c r="D127" t="s">
-        <v>169</v>
+      <c r="D127" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="E127" t="s">
         <v>15</v>
@@ -4634,8 +4565,8 @@
       <c r="C128">
         <v>1</v>
       </c>
-      <c r="D128" t="s">
-        <v>170</v>
+      <c r="D128" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="E128" t="s">
         <v>15</v>
@@ -4655,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E129" t="s">
         <v>15</v>
@@ -4675,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E130" t="s">
         <v>15</v>
@@ -4695,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
@@ -4715,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E132" t="s">
         <v>15</v>
@@ -4735,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E133" t="s">
         <v>15</v>
@@ -4755,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E134" t="s">
         <v>15</v>
@@ -4774,8 +4705,8 @@
       <c r="C135">
         <v>1</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>178</v>
+      <c r="D135" t="s">
+        <v>164</v>
       </c>
       <c r="E135" t="s">
         <v>15</v>
@@ -4795,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E136" t="s">
         <v>15</v>
@@ -4815,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E137" t="s">
         <v>15</v>
@@ -4834,8 +4765,8 @@
       <c r="C138">
         <v>1</v>
       </c>
-      <c r="D138" t="s">
-        <v>181</v>
+      <c r="D138" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
@@ -4854,8 +4785,8 @@
       <c r="C139">
         <v>1</v>
       </c>
-      <c r="D139" t="s">
-        <v>182</v>
+      <c r="D139" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E139" t="s">
         <v>15</v>
@@ -4874,8 +4805,8 @@
       <c r="C140">
         <v>1</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>183</v>
+      <c r="D140" t="s">
+        <v>169</v>
       </c>
       <c r="E140" t="s">
         <v>15</v>
@@ -4894,8 +4825,8 @@
       <c r="C141">
         <v>1</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>184</v>
+      <c r="D141" t="s">
+        <v>170</v>
       </c>
       <c r="E141" t="s">
         <v>15</v>
@@ -4915,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E142" t="s">
         <v>15</v>
@@ -4935,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E143" t="s">
         <v>15</v>
@@ -4952,16 +4883,16 @@
         <v>7</v>
       </c>
       <c r="C144">
-        <v>2</v>
-      </c>
-      <c r="D144" t="s">
-        <v>187</v>
+        <v>1</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E144" t="s">
         <v>15</v>
       </c>
       <c r="F144" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4972,16 +4903,16 @@
         <v>7</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E145" t="s">
         <v>15</v>
       </c>
       <c r="F145" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4992,16 +4923,16 @@
         <v>7</v>
       </c>
       <c r="C146">
-        <v>2</v>
-      </c>
-      <c r="D146" t="s">
-        <v>189</v>
+        <v>1</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="E146" t="s">
         <v>15</v>
       </c>
       <c r="F146" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -5012,16 +4943,16 @@
         <v>7</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E147" t="s">
         <v>15</v>
       </c>
       <c r="F147" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -5032,16 +4963,16 @@
         <v>7</v>
       </c>
       <c r="C148">
-        <v>2</v>
-      </c>
-      <c r="D148" t="s">
-        <v>191</v>
+        <v>1</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="E148" t="s">
         <v>15</v>
       </c>
       <c r="F148" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -5052,16 +4983,16 @@
         <v>7</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E149" t="s">
         <v>15</v>
       </c>
       <c r="F149" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -5072,16 +5003,16 @@
         <v>7</v>
       </c>
       <c r="C150">
-        <v>2</v>
-      </c>
-      <c r="D150" t="s">
-        <v>193</v>
+        <v>1</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="E150" t="s">
         <v>15</v>
       </c>
       <c r="F150" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -5092,16 +5023,16 @@
         <v>7</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E151" t="s">
         <v>15</v>
       </c>
       <c r="F151" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -5112,16 +5043,16 @@
         <v>7</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
       </c>
       <c r="F152" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -5132,16 +5063,16 @@
         <v>7</v>
       </c>
       <c r="C153">
-        <v>2</v>
-      </c>
-      <c r="D153" t="s">
-        <v>196</v>
+        <v>1</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="E153" t="s">
         <v>15</v>
       </c>
       <c r="F153" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -5152,16 +5083,16 @@
         <v>7</v>
       </c>
       <c r="C154">
-        <v>2</v>
-      </c>
-      <c r="D154" t="s">
-        <v>197</v>
+        <v>1</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="E154" t="s">
         <v>15</v>
       </c>
       <c r="F154" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -5172,16 +5103,16 @@
         <v>7</v>
       </c>
       <c r="C155">
-        <v>2</v>
-      </c>
-      <c r="D155" t="s">
-        <v>198</v>
+        <v>1</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="E155" t="s">
         <v>15</v>
       </c>
       <c r="F155" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -5192,16 +5123,16 @@
         <v>7</v>
       </c>
       <c r="C156">
-        <v>2</v>
-      </c>
-      <c r="D156" t="s">
-        <v>199</v>
+        <v>1</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="E156" t="s">
         <v>15</v>
       </c>
       <c r="F156" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -5215,7 +5146,7 @@
         <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E157" t="s">
         <v>15</v>
@@ -5235,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E158" t="s">
         <v>15</v>
@@ -5255,7 +5186,7 @@
         <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
@@ -5264,289 +5195,289 @@
         <v>468</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>416</v>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>136</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>190</v>
+      </c>
+      <c r="E160" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E161" t="s">
         <v>15</v>
       </c>
-      <c r="F161" s="3" t="s">
-        <v>416</v>
+      <c r="F161" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E162" t="s">
         <v>15</v>
       </c>
-      <c r="F162" s="3" t="s">
-        <v>416</v>
+      <c r="F162" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E163" t="s">
         <v>15</v>
       </c>
-      <c r="F163" s="3" t="s">
-        <v>416</v>
+      <c r="F163" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E164" t="s">
         <v>15</v>
       </c>
-      <c r="F164" s="3" t="s">
-        <v>416</v>
+      <c r="F164" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E165" t="s">
         <v>15</v>
       </c>
-      <c r="F165" s="3" t="s">
-        <v>416</v>
+      <c r="F165" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
       </c>
-      <c r="F166" s="3" t="s">
-        <v>416</v>
+      <c r="F166" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E167" t="s">
         <v>15</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>416</v>
+      <c r="F167" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E168" t="s">
         <v>15</v>
       </c>
-      <c r="F168" s="3" t="s">
-        <v>416</v>
+      <c r="F168" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>416</v>
+      <c r="A169" t="s">
+        <v>136</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>199</v>
+      </c>
+      <c r="E169" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E170" t="s">
         <v>15</v>
       </c>
       <c r="F170" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E171" t="s">
         <v>15</v>
       </c>
       <c r="F171" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E172" t="s">
         <v>15</v>
       </c>
       <c r="F172" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>213</v>
-      </c>
-      <c r="B173" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-      <c r="D173" t="s">
-        <v>219</v>
-      </c>
-      <c r="E173" t="s">
-        <v>15</v>
-      </c>
-      <c r="F173" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" s="3" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -5555,18 +5486,18 @@
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E174" t="s">
         <v>15</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" s="3" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -5575,18 +5506,18 @@
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E175" t="s">
         <v>15</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="3" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -5595,18 +5526,18 @@
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E176" t="s">
         <v>15</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="3" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -5615,18 +5546,18 @@
         <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E177" t="s">
         <v>15</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="3" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -5635,18 +5566,18 @@
         <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E178" t="s">
         <v>15</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" s="3" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -5655,18 +5586,18 @@
         <v>1</v>
       </c>
       <c r="D179" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E179" t="s">
         <v>15</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="3" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -5675,52 +5606,52 @@
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="3" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>203</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>212</v>
+      </c>
+      <c r="E181" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B181" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181">
-        <v>1</v>
-      </c>
-      <c r="D181" t="s">
-        <v>227</v>
-      </c>
-      <c r="E181" t="s">
-        <v>15</v>
-      </c>
-      <c r="F181" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>213</v>
-      </c>
-      <c r="B182" t="s">
-        <v>7</v>
-      </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-      <c r="D182" t="s">
-        <v>228</v>
-      </c>
-      <c r="E182" t="s">
-        <v>15</v>
-      </c>
-      <c r="F182" t="s">
+      <c r="B182" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" s="3" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5735,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E183" t="s">
         <v>15</v>
@@ -5755,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E184" t="s">
         <v>15</v>
@@ -5765,23 +5696,23 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
+      <c r="A185" t="s">
         <v>213</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C185" s="3">
-        <v>2</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E185" s="3" t="s">
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>218</v>
+      </c>
+      <c r="E185" t="s">
         <v>15</v>
       </c>
       <c r="F185" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -5792,16 +5723,16 @@
         <v>7</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E186" t="s">
         <v>15</v>
       </c>
       <c r="F186" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -5812,16 +5743,16 @@
         <v>7</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
       </c>
       <c r="F187" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -5832,16 +5763,16 @@
         <v>7</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E188" t="s">
         <v>15</v>
       </c>
       <c r="F188" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -5852,16 +5783,16 @@
         <v>7</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E189" t="s">
         <v>15</v>
       </c>
       <c r="F189" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -5872,32 +5803,32 @@
         <v>7</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E190" t="s">
         <v>15</v>
       </c>
       <c r="F190" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C191" s="3">
-        <v>1</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E191" s="3" t="s">
+      <c r="A191" t="s">
+        <v>213</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>224</v>
+      </c>
+      <c r="E191" t="s">
         <v>15</v>
       </c>
       <c r="F191" t="s">
@@ -5906,7 +5837,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -5915,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E192" t="s">
         <v>15</v>
@@ -5926,7 +5857,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
@@ -5935,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E193" t="s">
         <v>15</v>
@@ -5946,7 +5877,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -5955,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -5966,7 +5897,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
@@ -5975,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E195" t="s">
         <v>15</v>
@@ -5986,7 +5917,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
@@ -5995,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E196" t="s">
         <v>15</v>
@@ -6006,7 +5937,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -6015,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E197" t="s">
         <v>15</v>
@@ -6025,19 +5956,19 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C198" s="3">
-        <v>2</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E198" s="3" t="s">
+      <c r="A198" t="s">
+        <v>213</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198" t="s">
+        <v>234</v>
+      </c>
+      <c r="E198" t="s">
         <v>15</v>
       </c>
       <c r="F198" t="s">
@@ -6046,7 +5977,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -6055,7 +5986,7 @@
         <v>2</v>
       </c>
       <c r="D199" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E199" t="s">
         <v>15</v>
@@ -6066,7 +5997,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -6075,7 +6006,7 @@
         <v>2</v>
       </c>
       <c r="D200" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E200" t="s">
         <v>15</v>
@@ -6085,59 +6016,59 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C201" s="3">
-        <v>1</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>416</v>
+      <c r="A201" t="s">
+        <v>213</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="D201" t="s">
+        <v>237</v>
+      </c>
+      <c r="E201" t="s">
+        <v>15</v>
+      </c>
+      <c r="F201" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="E202" t="s">
         <v>15</v>
       </c>
       <c r="F202" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>249</v>
-      </c>
-      <c r="B203" t="s">
-        <v>7</v>
-      </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-      <c r="D203" t="s">
-        <v>252</v>
-      </c>
-      <c r="E203" t="s">
+      <c r="A203" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="3">
+        <v>1</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E203" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F203" t="s">
@@ -6146,7 +6077,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -6155,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E204" t="s">
         <v>15</v>
@@ -6166,7 +6097,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -6175,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E205" t="s">
         <v>15</v>
@@ -6186,7 +6117,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -6195,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="D206" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E206" t="s">
         <v>15</v>
@@ -6206,7 +6137,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -6215,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E207" t="s">
         <v>15</v>
@@ -6226,7 +6157,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -6235,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="D208" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -6246,7 +6177,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -6255,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E209" t="s">
         <v>15</v>
@@ -6266,61 +6197,61 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E210" t="s">
         <v>15</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
+        <v>239</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211">
+        <v>2</v>
+      </c>
+      <c r="D211" t="s">
+        <v>248</v>
+      </c>
+      <c r="E211" t="s">
+        <v>15</v>
+      </c>
+      <c r="F211" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B211" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211">
-        <v>1</v>
-      </c>
-      <c r="D211" t="s">
-        <v>260</v>
-      </c>
-      <c r="E211" t="s">
-        <v>15</v>
-      </c>
-      <c r="F211" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>249</v>
-      </c>
-      <c r="B212" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212">
-        <v>1</v>
-      </c>
-      <c r="D212" t="s">
-        <v>261</v>
-      </c>
-      <c r="E212" t="s">
-        <v>15</v>
-      </c>
-      <c r="F212" t="s">
+      <c r="B212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="3">
+        <v>1</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" s="3" t="s">
         <v>416</v>
       </c>
     </row>
@@ -6335,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E213" t="s">
         <v>15</v>
@@ -6355,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E214" t="s">
         <v>15</v>
@@ -6365,65 +6296,68 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="4" t="s">
+      <c r="A215" t="s">
         <v>249</v>
       </c>
-      <c r="B215" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" s="4">
-        <v>2</v>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
       </c>
       <c r="F215" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="4" t="s">
+      <c r="A216" t="s">
         <v>249</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" t="s">
         <v>7</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>266</v>
+        <v>254</v>
+      </c>
+      <c r="E216" t="s">
+        <v>15</v>
       </c>
       <c r="F216" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" s="3">
-        <v>1</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>427</v>
+      <c r="A217" t="s">
+        <v>249</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217" t="s">
+        <v>255</v>
+      </c>
+      <c r="E217" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
@@ -6432,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="D218" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E218" t="s">
         <v>15</v>
@@ -6443,7 +6377,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B219" t="s">
         <v>7</v>
@@ -6452,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="D219" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E219" t="s">
         <v>15</v>
@@ -6463,7 +6397,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B220" t="s">
         <v>7</v>
@@ -6472,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="E220" t="s">
         <v>15</v>
@@ -6483,7 +6417,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B221" t="s">
         <v>7</v>
@@ -6492,7 +6426,7 @@
         <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E221" t="s">
         <v>15</v>
@@ -6503,7 +6437,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B222" t="s">
         <v>7</v>
@@ -6512,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="D222" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -6523,7 +6457,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B223" t="s">
         <v>7</v>
@@ -6532,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="D223" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E223" t="s">
         <v>15</v>
@@ -6542,19 +6476,19 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" s="3">
-        <v>1</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E224" s="3" t="s">
+      <c r="A224" t="s">
+        <v>249</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>262</v>
+      </c>
+      <c r="E224" t="s">
         <v>15</v>
       </c>
       <c r="F224" t="s">
@@ -6563,82 +6497,79 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
+        <v>249</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225" t="s">
+        <v>263</v>
+      </c>
+      <c r="E225" t="s">
+        <v>15</v>
+      </c>
+      <c r="F225" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" s="4">
+        <v>2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>264</v>
+      </c>
+      <c r="E226" t="s">
+        <v>15</v>
+      </c>
+      <c r="F226" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>266</v>
+      </c>
+      <c r="F227" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B225" t="s">
-        <v>7</v>
-      </c>
-      <c r="C225">
-        <v>1</v>
-      </c>
-      <c r="D225" t="s">
-        <v>276</v>
-      </c>
-      <c r="E225" t="s">
-        <v>15</v>
-      </c>
-      <c r="F225" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>267</v>
-      </c>
-      <c r="B226" t="s">
-        <v>7</v>
-      </c>
-      <c r="C226">
-        <v>1</v>
-      </c>
-      <c r="D226" t="s">
-        <v>277</v>
-      </c>
-      <c r="E226" t="s">
-        <v>15</v>
-      </c>
-      <c r="F226" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>267</v>
-      </c>
-      <c r="B227" t="s">
-        <v>7</v>
-      </c>
-      <c r="C227">
-        <v>1</v>
-      </c>
-      <c r="D227" t="s">
-        <v>278</v>
-      </c>
-      <c r="E227" t="s">
-        <v>15</v>
-      </c>
-      <c r="F227" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>267</v>
-      </c>
-      <c r="B228" t="s">
-        <v>7</v>
-      </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-      <c r="D228" t="s">
-        <v>279</v>
-      </c>
-      <c r="E228" t="s">
-        <v>15</v>
-      </c>
-      <c r="F228" t="s">
-        <v>416</v>
+      <c r="B228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" s="3">
+        <v>1</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -6652,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="D229" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E229" t="s">
         <v>15</v>
@@ -6672,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="D230" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E230" t="s">
         <v>15</v>
@@ -6682,28 +6613,28 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C231" s="3">
-        <v>1</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>427</v>
+      <c r="A231" t="s">
+        <v>267</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231" t="s">
+        <v>271</v>
+      </c>
+      <c r="E231" t="s">
+        <v>15</v>
+      </c>
+      <c r="F231" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -6712,18 +6643,18 @@
         <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E232" t="s">
         <v>15</v>
       </c>
       <c r="F232" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -6732,18 +6663,18 @@
         <v>1</v>
       </c>
       <c r="D233" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E233" t="s">
         <v>15</v>
       </c>
       <c r="F233" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
@@ -6752,98 +6683,98 @@
         <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E234" t="s">
         <v>15</v>
       </c>
       <c r="F234" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C235" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F235" s="3" t="s">
-        <v>468</v>
+      <c r="F235" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E236" t="s">
         <v>15</v>
       </c>
       <c r="F236" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E237" t="s">
         <v>15</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
       </c>
       <c r="C238">
-        <v>2</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>289</v>
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>278</v>
       </c>
       <c r="E238" t="s">
         <v>15</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -6852,18 +6783,18 @@
         <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E239" t="s">
         <v>15</v>
       </c>
       <c r="F239" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -6872,18 +6803,18 @@
         <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E240" t="s">
         <v>15</v>
       </c>
       <c r="F240" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
@@ -6892,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="E241" t="s">
         <v>15</v>
@@ -6902,28 +6833,28 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>294</v>
-      </c>
-      <c r="B242" t="s">
-        <v>7</v>
-      </c>
-      <c r="C242">
-        <v>1</v>
-      </c>
-      <c r="D242" t="s">
-        <v>295</v>
-      </c>
-      <c r="E242" t="s">
-        <v>15</v>
-      </c>
-      <c r="F242" t="s">
-        <v>416</v>
+      <c r="A242" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="3">
+        <v>1</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B243" t="s">
         <v>7</v>
@@ -6932,18 +6863,18 @@
         <v>1</v>
       </c>
       <c r="D243" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
       </c>
       <c r="F243" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B244" t="s">
         <v>7</v>
@@ -6952,18 +6883,18 @@
         <v>1</v>
       </c>
       <c r="D244" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E244" t="s">
         <v>15</v>
       </c>
       <c r="F244" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B245" t="s">
         <v>7</v>
@@ -6972,18 +6903,18 @@
         <v>1</v>
       </c>
       <c r="D245" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="E245" t="s">
         <v>15</v>
       </c>
       <c r="F245" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B246" t="s">
         <v>7</v>
@@ -6992,7 +6923,7 @@
         <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E246" t="s">
         <v>15</v>
@@ -7003,7 +6934,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B247" t="s">
         <v>7</v>
@@ -7012,7 +6943,7 @@
         <v>2</v>
       </c>
       <c r="D247" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E247" t="s">
         <v>15</v>
@@ -7023,27 +6954,27 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B248" t="s">
         <v>7</v>
       </c>
       <c r="C248">
-        <v>1</v>
-      </c>
-      <c r="D248" t="s">
-        <v>302</v>
+        <v>2</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="E248" t="s">
         <v>15</v>
       </c>
       <c r="F248" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B249" t="s">
         <v>7</v>
@@ -7052,18 +6983,18 @@
         <v>1</v>
       </c>
       <c r="D249" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E249" t="s">
         <v>15</v>
       </c>
       <c r="F249" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B250" t="s">
         <v>7</v>
@@ -7072,18 +7003,18 @@
         <v>1</v>
       </c>
       <c r="D250" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
       </c>
       <c r="F250" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B251" t="s">
         <v>7</v>
@@ -7092,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="D251" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E251" t="s">
         <v>15</v>
@@ -7103,7 +7034,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B252" t="s">
         <v>7</v>
@@ -7112,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="D252" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E252" t="s">
         <v>15</v>
@@ -7123,7 +7054,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B253" t="s">
         <v>7</v>
@@ -7132,7 +7063,7 @@
         <v>1</v>
       </c>
       <c r="D253" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E253" t="s">
         <v>15</v>
@@ -7143,27 +7074,27 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B254" t="s">
         <v>7</v>
       </c>
       <c r="C254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D254" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E254" t="s">
         <v>15</v>
       </c>
       <c r="F254" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B255" t="s">
         <v>7</v>
@@ -7172,7 +7103,7 @@
         <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E255" t="s">
         <v>15</v>
@@ -7183,7 +7114,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B256" t="s">
         <v>7</v>
@@ -7192,7 +7123,7 @@
         <v>2</v>
       </c>
       <c r="D256" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E256" t="s">
         <v>15</v>
@@ -7202,28 +7133,28 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A257" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C257" s="3">
-        <v>1</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E257" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F257" s="3" t="s">
+      <c r="A257" t="s">
+        <v>301</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257" t="s">
+        <v>302</v>
+      </c>
+      <c r="E257" t="s">
+        <v>15</v>
+      </c>
+      <c r="F257" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
@@ -7232,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="D258" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E258" t="s">
         <v>15</v>
@@ -7243,7 +7174,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
@@ -7252,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="D259" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E259" t="s">
         <v>15</v>
@@ -7263,7 +7194,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
@@ -7272,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="D260" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E260" t="s">
         <v>15</v>
@@ -7283,7 +7214,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
@@ -7292,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E261" t="s">
         <v>15</v>
@@ -7303,7 +7234,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
@@ -7312,7 +7243,7 @@
         <v>1</v>
       </c>
       <c r="D262" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E262" t="s">
         <v>15</v>
@@ -7323,47 +7254,47 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D263" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E263" t="s">
         <v>15</v>
       </c>
       <c r="F263" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D264" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
       </c>
       <c r="F264" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -7372,7 +7303,7 @@
         <v>2</v>
       </c>
       <c r="D265" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E265" t="s">
         <v>15</v>
@@ -7382,168 +7313,168 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>321</v>
-      </c>
-      <c r="B266" t="s">
-        <v>7</v>
-      </c>
-      <c r="C266">
-        <v>2</v>
-      </c>
-      <c r="D266" t="s">
-        <v>472</v>
-      </c>
-      <c r="E266" t="s">
-        <v>15</v>
-      </c>
-      <c r="F266" t="s">
-        <v>468</v>
+      <c r="A266" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" s="3">
+        <v>1</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D267" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E267" t="s">
         <v>15</v>
       </c>
       <c r="F267" t="s">
-        <v>474</v>
+        <v>416</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="E268" t="s">
         <v>15</v>
       </c>
       <c r="F268" t="s">
-        <v>474</v>
+        <v>416</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D269" t="s">
-        <v>475</v>
+        <v>316</v>
       </c>
       <c r="E269" t="s">
         <v>15</v>
       </c>
       <c r="F269" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D270" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E270" t="s">
         <v>15</v>
       </c>
       <c r="F270" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
       </c>
       <c r="C271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D271" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E271" t="s">
         <v>15</v>
       </c>
       <c r="F271" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="B272" t="s">
         <v>7</v>
       </c>
       <c r="C272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D272" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E272" t="s">
         <v>15</v>
       </c>
       <c r="F272" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="B273" t="s">
         <v>7</v>
       </c>
       <c r="C273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D273" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E273" t="s">
         <v>15</v>
       </c>
       <c r="F273" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="B274" t="s">
         <v>7</v>
@@ -7552,7 +7483,7 @@
         <v>2</v>
       </c>
       <c r="D274" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E274" t="s">
         <v>15</v>
@@ -7563,7 +7494,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="B275" t="s">
         <v>7</v>
@@ -7572,7 +7503,7 @@
         <v>2</v>
       </c>
       <c r="D275" t="s">
-        <v>331</v>
+        <v>472</v>
       </c>
       <c r="E275" t="s">
         <v>15</v>
@@ -7583,7 +7514,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="B276" t="s">
         <v>7</v>
@@ -7592,18 +7523,18 @@
         <v>2</v>
       </c>
       <c r="D276" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E276" t="s">
         <v>15</v>
       </c>
       <c r="F276" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="B277" t="s">
         <v>7</v>
@@ -7612,18 +7543,18 @@
         <v>2</v>
       </c>
       <c r="D277" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="E277" t="s">
         <v>15</v>
       </c>
       <c r="F277" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>74</v>
+        <v>324</v>
       </c>
       <c r="B278" t="s">
         <v>7</v>
@@ -7632,7 +7563,7 @@
         <v>2</v>
       </c>
       <c r="D278" t="s">
-        <v>334</v>
+        <v>475</v>
       </c>
       <c r="E278" t="s">
         <v>15</v>
@@ -7652,7 +7583,7 @@
         <v>2</v>
       </c>
       <c r="D279" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E279" t="s">
         <v>15</v>
@@ -7672,7 +7603,7 @@
         <v>2</v>
       </c>
       <c r="D280" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E280" t="s">
         <v>15</v>
@@ -7692,7 +7623,7 @@
         <v>2</v>
       </c>
       <c r="D281" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E281" t="s">
         <v>15</v>
@@ -7712,7 +7643,7 @@
         <v>2</v>
       </c>
       <c r="D282" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E282" t="s">
         <v>15</v>
@@ -7732,7 +7663,7 @@
         <v>2</v>
       </c>
       <c r="D283" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E283" t="s">
         <v>15</v>
@@ -7752,7 +7683,7 @@
         <v>2</v>
       </c>
       <c r="D284" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E284" t="s">
         <v>15</v>
@@ -7763,7 +7694,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>341</v>
+        <v>74</v>
       </c>
       <c r="B285" t="s">
         <v>7</v>
@@ -7772,7 +7703,7 @@
         <v>2</v>
       </c>
       <c r="D285" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="E285" t="s">
         <v>15</v>
@@ -7783,7 +7714,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>341</v>
+        <v>74</v>
       </c>
       <c r="B286" t="s">
         <v>7</v>
@@ -7792,7 +7723,7 @@
         <v>2</v>
       </c>
       <c r="D286" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E286" t="s">
         <v>15</v>
@@ -7803,7 +7734,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>344</v>
+        <v>74</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -7812,7 +7743,7 @@
         <v>2</v>
       </c>
       <c r="D287" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E287" t="s">
         <v>15</v>
@@ -7823,7 +7754,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>344</v>
+        <v>74</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
@@ -7832,7 +7763,7 @@
         <v>2</v>
       </c>
       <c r="D288" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E288" t="s">
         <v>15</v>
@@ -7843,7 +7774,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -7852,7 +7783,7 @@
         <v>2</v>
       </c>
       <c r="D289" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E289" t="s">
         <v>15</v>
@@ -7863,7 +7794,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -7872,7 +7803,7 @@
         <v>2</v>
       </c>
       <c r="D290" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E290" t="s">
         <v>15</v>
@@ -7883,7 +7814,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -7892,7 +7823,7 @@
         <v>2</v>
       </c>
       <c r="D291" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E291" t="s">
         <v>15</v>
@@ -7903,7 +7834,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -7912,7 +7843,7 @@
         <v>2</v>
       </c>
       <c r="D292" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E292" t="s">
         <v>15</v>
@@ -7923,7 +7854,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
@@ -7932,7 +7863,7 @@
         <v>2</v>
       </c>
       <c r="D293" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E293" t="s">
         <v>15</v>
@@ -7943,7 +7874,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
@@ -7952,7 +7883,7 @@
         <v>2</v>
       </c>
       <c r="D294" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E294" t="s">
         <v>15</v>
@@ -7963,7 +7894,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -7972,7 +7903,7 @@
         <v>2</v>
       </c>
       <c r="D295" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E295" t="s">
         <v>15</v>
@@ -7983,7 +7914,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -7992,7 +7923,7 @@
         <v>2</v>
       </c>
       <c r="D296" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E296" t="s">
         <v>15</v>
@@ -8003,7 +7934,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -8012,7 +7943,7 @@
         <v>2</v>
       </c>
       <c r="D297" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E297" t="s">
         <v>15</v>
@@ -8023,7 +7954,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -8032,7 +7963,7 @@
         <v>2</v>
       </c>
       <c r="D298" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E298" t="s">
         <v>15</v>
@@ -8043,167 +7974,167 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D299" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="E299" t="s">
-        <v>265</v>
+        <v>15</v>
       </c>
       <c r="F299" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D300" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="E300" t="s">
-        <v>366</v>
+        <v>15</v>
       </c>
       <c r="F300" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
       </c>
       <c r="C301">
-        <v>1</v>
-      </c>
-      <c r="D301" s="6" t="s">
-        <v>429</v>
+        <v>2</v>
+      </c>
+      <c r="D301" t="s">
+        <v>351</v>
       </c>
       <c r="E301" t="s">
         <v>15</v>
       </c>
       <c r="F301" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="B302" t="s">
         <v>7</v>
       </c>
       <c r="C302">
-        <v>1</v>
-      </c>
-      <c r="D302" s="6" t="s">
-        <v>430</v>
+        <v>2</v>
+      </c>
+      <c r="D302" t="s">
+        <v>352</v>
       </c>
       <c r="E302" t="s">
         <v>15</v>
       </c>
       <c r="F302" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="B303" t="s">
         <v>7</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D303" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="E303" t="s">
         <v>15</v>
       </c>
       <c r="F303" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B304" t="s">
         <v>7</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D304" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="E304" t="s">
         <v>15</v>
       </c>
       <c r="F304" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B305" t="s">
         <v>7</v>
       </c>
       <c r="C305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D305" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="E305" t="s">
         <v>15</v>
       </c>
       <c r="F305" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B306" t="s">
         <v>7</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D306" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="E306" t="s">
         <v>15</v>
       </c>
       <c r="F306" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B307" t="s">
         <v>7</v>
@@ -8212,10 +8143,10 @@
         <v>1</v>
       </c>
       <c r="D307" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E307" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="F307" t="s">
         <v>416</v>
@@ -8223,7 +8154,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B308" t="s">
         <v>7</v>
@@ -8232,10 +8163,10 @@
         <v>1</v>
       </c>
       <c r="D308" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E308" t="s">
-        <v>15</v>
+        <v>366</v>
       </c>
       <c r="F308" t="s">
         <v>416</v>
@@ -8243,7 +8174,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B309" t="s">
         <v>7</v>
@@ -8251,8 +8182,8 @@
       <c r="C309">
         <v>1</v>
       </c>
-      <c r="D309" t="s">
-        <v>376</v>
+      <c r="D309" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="E309" t="s">
         <v>15</v>
@@ -8263,7 +8194,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B310" t="s">
         <v>7</v>
@@ -8271,8 +8202,8 @@
       <c r="C310">
         <v>1</v>
       </c>
-      <c r="D310" t="s">
-        <v>377</v>
+      <c r="D310" s="6" t="s">
+        <v>430</v>
       </c>
       <c r="E310" t="s">
         <v>15</v>
@@ -8283,7 +8214,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B311" t="s">
         <v>7</v>
@@ -8292,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="D311" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E311" t="s">
         <v>15</v>
@@ -8303,7 +8234,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B312" t="s">
         <v>7</v>
@@ -8312,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="D312" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E312" t="s">
         <v>15</v>
@@ -8323,7 +8254,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B313" t="s">
         <v>7</v>
@@ -8332,7 +8263,7 @@
         <v>1</v>
       </c>
       <c r="D313" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E313" t="s">
         <v>15</v>
@@ -8343,7 +8274,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B314" t="s">
         <v>7</v>
@@ -8352,7 +8283,7 @@
         <v>1</v>
       </c>
       <c r="D314" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="E314" t="s">
         <v>15</v>
@@ -8363,7 +8294,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B315" t="s">
         <v>7</v>
@@ -8372,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="D315" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E315" t="s">
         <v>15</v>
@@ -8383,7 +8314,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B316" t="s">
         <v>7</v>
@@ -8392,7 +8323,7 @@
         <v>1</v>
       </c>
       <c r="D316" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E316" t="s">
         <v>15</v>
@@ -8403,7 +8334,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -8412,7 +8343,7 @@
         <v>1</v>
       </c>
       <c r="D317" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E317" t="s">
         <v>15</v>
@@ -8423,7 +8354,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
@@ -8432,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="D318" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E318" t="s">
         <v>15</v>
@@ -8443,7 +8374,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B319" t="s">
         <v>7</v>
@@ -8452,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="D319" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="E319" t="s">
         <v>15</v>
@@ -8463,7 +8394,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
@@ -8472,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="D320" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E320" t="s">
         <v>15</v>
@@ -8483,7 +8414,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
@@ -8492,7 +8423,7 @@
         <v>1</v>
       </c>
       <c r="D321" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E321" t="s">
         <v>15</v>
@@ -8503,7 +8434,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
@@ -8512,7 +8443,7 @@
         <v>1</v>
       </c>
       <c r="D322" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E322" t="s">
         <v>15</v>
@@ -8523,7 +8454,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
@@ -8532,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="D323" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E323" t="s">
         <v>15</v>
@@ -8543,7 +8474,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
@@ -8552,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="D324" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="E324" t="s">
         <v>15</v>
@@ -8563,7 +8494,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -8572,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="D325" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="E325" t="s">
         <v>15</v>
@@ -8583,7 +8514,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
@@ -8592,7 +8523,7 @@
         <v>1</v>
       </c>
       <c r="D326" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E326" t="s">
         <v>15</v>
@@ -8603,7 +8534,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B327" t="s">
         <v>7</v>
@@ -8612,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="D327" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E327" t="s">
         <v>15</v>
@@ -8623,7 +8554,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B328" t="s">
         <v>7</v>
@@ -8631,8 +8562,8 @@
       <c r="C328">
         <v>1</v>
       </c>
-      <c r="D328" s="7" t="s">
-        <v>398</v>
+      <c r="D328" t="s">
+        <v>389</v>
       </c>
       <c r="E328" t="s">
         <v>15</v>
@@ -8643,7 +8574,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B329" t="s">
         <v>7</v>
@@ -8652,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="D329" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E329" t="s">
         <v>15</v>
@@ -8663,7 +8594,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B330" t="s">
         <v>7</v>
@@ -8672,7 +8603,7 @@
         <v>1</v>
       </c>
       <c r="D330" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E330" t="s">
         <v>15</v>
@@ -8683,7 +8614,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
@@ -8692,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="D331" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E331" t="s">
         <v>15</v>
@@ -8703,7 +8634,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B332" t="s">
         <v>7</v>
@@ -8712,7 +8643,7 @@
         <v>1</v>
       </c>
       <c r="D332" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E332" t="s">
         <v>15</v>
@@ -8732,7 +8663,7 @@
         <v>1</v>
       </c>
       <c r="D333" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E333" t="s">
         <v>15</v>
@@ -8752,7 +8683,7 @@
         <v>1</v>
       </c>
       <c r="D334" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E334" t="s">
         <v>15</v>
@@ -8772,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="D335" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E335" t="s">
         <v>15</v>
@@ -8791,8 +8722,8 @@
       <c r="C336">
         <v>1</v>
       </c>
-      <c r="D336" t="s">
-        <v>406</v>
+      <c r="D336" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="E336" t="s">
         <v>15</v>
@@ -8812,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="D337" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E337" t="s">
         <v>15</v>
@@ -8832,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="D338" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E338" t="s">
         <v>15</v>
@@ -8852,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="D339" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E339" t="s">
         <v>15</v>
@@ -8872,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="D340" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E340" t="s">
         <v>15</v>
@@ -8892,7 +8823,7 @@
         <v>1</v>
       </c>
       <c r="D341" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E341" t="s">
         <v>15</v>
@@ -8909,16 +8840,16 @@
         <v>7</v>
       </c>
       <c r="C342">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D342" t="s">
-        <v>473</v>
+        <v>404</v>
       </c>
       <c r="E342" t="s">
         <v>15</v>
       </c>
       <c r="F342" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -8929,21 +8860,21 @@
         <v>7</v>
       </c>
       <c r="C343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D343" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E343" t="s">
         <v>15</v>
       </c>
       <c r="F343" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="B344" t="s">
         <v>7</v>
@@ -8951,8 +8882,8 @@
       <c r="C344">
         <v>1</v>
       </c>
-      <c r="D344" s="1" t="s">
-        <v>291</v>
+      <c r="D344" t="s">
+        <v>406</v>
       </c>
       <c r="E344" t="s">
         <v>15</v>
@@ -8963,16 +8894,16 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="B345" t="s">
         <v>7</v>
       </c>
       <c r="C345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D345" t="s">
-        <v>478</v>
+        <v>407</v>
       </c>
       <c r="E345" t="s">
         <v>15</v>
@@ -8983,16 +8914,16 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="B346" t="s">
         <v>7</v>
       </c>
       <c r="C346">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D346" t="s">
-        <v>479</v>
+        <v>408</v>
       </c>
       <c r="E346" t="s">
         <v>15</v>
@@ -9003,16 +8934,16 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="B347" t="s">
         <v>7</v>
       </c>
       <c r="C347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D347" t="s">
-        <v>480</v>
+        <v>409</v>
       </c>
       <c r="E347" t="s">
         <v>15</v>
@@ -9023,16 +8954,16 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="B348" t="s">
         <v>7</v>
       </c>
       <c r="C348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D348" t="s">
-        <v>481</v>
+        <v>410</v>
       </c>
       <c r="E348" t="s">
         <v>15</v>
@@ -9043,16 +8974,16 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="B349" t="s">
         <v>7</v>
       </c>
       <c r="C349">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D349" t="s">
-        <v>482</v>
+        <v>411</v>
       </c>
       <c r="E349" t="s">
         <v>15</v>
@@ -9063,7 +8994,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="B350" t="s">
         <v>7</v>
@@ -9072,18 +9003,18 @@
         <v>2</v>
       </c>
       <c r="D350" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="E350" t="s">
         <v>15</v>
       </c>
       <c r="F350" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="B351" t="s">
         <v>7</v>
@@ -9092,13 +9023,13 @@
         <v>2</v>
       </c>
       <c r="D351" t="s">
-        <v>484</v>
+        <v>412</v>
       </c>
       <c r="E351" t="s">
         <v>15</v>
       </c>
       <c r="F351" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -9112,7 +9043,7 @@
         <v>2</v>
       </c>
       <c r="D352" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E352" t="s">
         <v>15</v>
@@ -9132,12 +9063,132 @@
         <v>2</v>
       </c>
       <c r="D353" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="E353" t="s">
         <v>15</v>
       </c>
       <c r="F353" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>476</v>
+      </c>
+      <c r="B354" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354">
+        <v>2</v>
+      </c>
+      <c r="D354" t="s">
+        <v>480</v>
+      </c>
+      <c r="E354" t="s">
+        <v>15</v>
+      </c>
+      <c r="F354" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>476</v>
+      </c>
+      <c r="B355" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355">
+        <v>2</v>
+      </c>
+      <c r="D355" t="s">
+        <v>481</v>
+      </c>
+      <c r="E355" t="s">
+        <v>15</v>
+      </c>
+      <c r="F355" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>476</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356">
+        <v>2</v>
+      </c>
+      <c r="D356" t="s">
+        <v>482</v>
+      </c>
+      <c r="E356" t="s">
+        <v>15</v>
+      </c>
+      <c r="F356" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>476</v>
+      </c>
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357">
+        <v>2</v>
+      </c>
+      <c r="D357" t="s">
+        <v>483</v>
+      </c>
+      <c r="E357" t="s">
+        <v>15</v>
+      </c>
+      <c r="F357" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>476</v>
+      </c>
+      <c r="B358" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+      <c r="D358" t="s">
+        <v>484</v>
+      </c>
+      <c r="E358" t="s">
+        <v>15</v>
+      </c>
+      <c r="F358" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>476</v>
+      </c>
+      <c r="B359" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359">
+        <v>2</v>
+      </c>
+      <c r="D359" t="s">
+        <v>485</v>
+      </c>
+      <c r="E359" t="s">
+        <v>15</v>
+      </c>
+      <c r="F359" t="s">
         <v>416</v>
       </c>
     </row>
